--- a/Annexe.xlsx
+++ b/Annexe.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\UdeS_S7_GEN700\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE3777E3-CDFE-4F89-A780-2E0BAC3F9BDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F10B63A-2FF0-41DD-9DC7-6D1A4BF5E6FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{BC273EC7-125C-4121-8820-100AB02E3B4D}"/>
   </bookViews>
@@ -36,8 +36,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
   <si>
     <t>N</t>
   </si>
@@ -76,12 +98,6 @@
   </si>
   <si>
     <t>(P/G, i, N)</t>
-  </si>
-  <si>
-    <t>TABLE A.1</t>
-  </si>
-  <si>
-    <t>p. 816</t>
   </si>
   <si>
     <t>F</t>
@@ -137,6 +153,15 @@
   <si>
     <t>Nombre de périodes de composition par période de versements</t>
   </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>Table</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
 </sst>
 </file>
 
@@ -145,7 +170,7 @@
   <numFmts count="1">
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,6 +190,19 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -570,7 +608,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -653,6 +691,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -675,15 +720,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>30770</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>33619</xdr:rowOff>
+      <xdr:colOff>38098</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>18965</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>600312</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>175846</xdr:rowOff>
+      <xdr:colOff>607640</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>161192</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -706,7 +751,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="30770" y="1367119"/>
+          <a:off x="38098" y="1542965"/>
           <a:ext cx="7149119" cy="6809727"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1455,7 +1500,7 @@
   <dimension ref="A1:J54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1466,17 +1511,17 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B1" s="38" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C1" s="38"/>
       <c r="D1" s="38" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E1" s="38" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F1" s="38"/>
       <c r="G1" s="38"/>
@@ -1489,14 +1534,14 @@
         <v>3</v>
       </c>
       <c r="B2" s="41" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C2" s="41"/>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F2" s="41"/>
       <c r="J2" s="42"/>
@@ -1506,24 +1551,24 @@
         <v>0</v>
       </c>
       <c r="B3" s="41" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C3" s="41"/>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F3" s="41"/>
       <c r="J3" s="42"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="40" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B4" s="46" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C4" s="41"/>
       <c r="D4" s="41"/>
@@ -1533,10 +1578,10 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="47" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B5" s="46" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C5" s="41"/>
       <c r="D5" s="41"/>
@@ -1546,10 +1591,10 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="47" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B6" s="46" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C6" s="41"/>
       <c r="D6" s="41"/>
@@ -1559,10 +1604,10 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="47" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B7" s="46" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C7" s="41"/>
       <c r="D7" s="41"/>
@@ -1571,455 +1616,752 @@
       <c r="J7" s="42"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="40"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
+      <c r="A8" s="52"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="51"/>
       <c r="G8" s="41"/>
       <c r="H8" s="41"/>
       <c r="I8" s="41"/>
       <c r="J8" s="42"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="40"/>
-      <c r="B9" s="41"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
+      <c r="A9" s="52"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="51"/>
       <c r="G9" s="41"/>
       <c r="H9" s="41"/>
       <c r="I9" s="41"/>
       <c r="J9" s="42"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="40"/>
-      <c r="B10" s="41"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
+      <c r="A10" s="54" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="53"/>
+      <c r="F10" s="51"/>
       <c r="G10" s="41"/>
       <c r="H10" s="41"/>
       <c r="I10" s="41"/>
       <c r="J10" s="42"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="40"/>
-      <c r="B11" s="41"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
+      <c r="A11" s="54" t="str">
+        <f>"A" &amp; (B11 - 1)</f>
+        <v>A1</v>
+      </c>
+      <c r="B11" s="48">
+        <v>2</v>
+      </c>
+      <c r="C11" s="49">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="D11" s="48">
+        <v>816</v>
+      </c>
+      <c r="E11" s="53"/>
+      <c r="F11" s="51"/>
       <c r="G11" s="41"/>
       <c r="H11" s="41"/>
       <c r="I11" s="41"/>
       <c r="J11" s="42"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="40"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
+      <c r="A12" s="54" t="str">
+        <f t="shared" ref="A12:A39" si="0">"A" &amp; (B12 - 1)</f>
+        <v>A2</v>
+      </c>
+      <c r="B12" s="48">
+        <v>3</v>
+      </c>
+      <c r="C12" s="49">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D12" s="48">
+        <f>D11 + 1</f>
+        <v>817</v>
+      </c>
+      <c r="E12" s="53"/>
+      <c r="F12" s="51"/>
       <c r="G12" s="41"/>
       <c r="H12" s="41"/>
       <c r="I12" s="41"/>
       <c r="J12" s="42"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="40"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
+      <c r="A13" s="54" t="str">
+        <f t="shared" si="0"/>
+        <v>A3</v>
+      </c>
+      <c r="B13" s="48">
+        <v>4</v>
+      </c>
+      <c r="C13" s="49">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="D13" s="48">
+        <f>D12 + 1</f>
+        <v>818</v>
+      </c>
+      <c r="E13" s="53"/>
+      <c r="F13" s="51"/>
       <c r="G13" s="41"/>
       <c r="H13" s="41"/>
       <c r="I13" s="41"/>
       <c r="J13" s="42"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="40"/>
-      <c r="B14" s="41"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
+      <c r="A14" s="54" t="str">
+        <f t="shared" si="0"/>
+        <v>A4</v>
+      </c>
+      <c r="B14" s="48">
+        <v>5</v>
+      </c>
+      <c r="C14" s="50">
+        <v>0.01</v>
+      </c>
+      <c r="D14" s="48">
+        <f>D13 + 1</f>
+        <v>819</v>
+      </c>
+      <c r="E14" s="53"/>
+      <c r="F14" s="51"/>
       <c r="G14" s="41"/>
       <c r="H14" s="41"/>
       <c r="I14" s="41"/>
       <c r="J14" s="42"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="40"/>
-      <c r="B15" s="41"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
+      <c r="A15" s="54" t="str">
+        <f t="shared" si="0"/>
+        <v>A5</v>
+      </c>
+      <c r="B15" s="48">
+        <v>6</v>
+      </c>
+      <c r="C15" s="49">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="D15" s="48">
+        <f>D14 + 1</f>
+        <v>820</v>
+      </c>
+      <c r="E15" s="53"/>
+      <c r="F15" s="51"/>
       <c r="G15" s="41"/>
       <c r="H15" s="41"/>
       <c r="I15" s="41"/>
       <c r="J15" s="42"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="40"/>
-      <c r="B16" s="41"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
+      <c r="A16" s="54" t="str">
+        <f t="shared" si="0"/>
+        <v>A6</v>
+      </c>
+      <c r="B16" s="48">
+        <v>7</v>
+      </c>
+      <c r="C16" s="49">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D16" s="48">
+        <f>D15 + 1</f>
+        <v>821</v>
+      </c>
+      <c r="E16" s="53"/>
+      <c r="F16" s="51"/>
       <c r="G16" s="41"/>
       <c r="H16" s="41"/>
       <c r="I16" s="41"/>
       <c r="J16" s="42"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="40"/>
-      <c r="B17" s="41"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
+      <c r="A17" s="54" t="str">
+        <f t="shared" si="0"/>
+        <v>A7</v>
+      </c>
+      <c r="B17" s="48">
+        <v>8</v>
+      </c>
+      <c r="C17" s="49">
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="D17" s="48">
+        <f>D16 + 1</f>
+        <v>822</v>
+      </c>
+      <c r="E17" s="53"/>
+      <c r="F17" s="51"/>
       <c r="G17" s="41"/>
       <c r="H17" s="41"/>
       <c r="I17" s="41"/>
       <c r="J17" s="42"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="40"/>
-      <c r="B18" s="41"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
+      <c r="A18" s="54" t="str">
+        <f t="shared" si="0"/>
+        <v>A8</v>
+      </c>
+      <c r="B18" s="48">
+        <v>9</v>
+      </c>
+      <c r="C18" s="50">
+        <v>0.02</v>
+      </c>
+      <c r="D18" s="48">
+        <f>D17 + 1</f>
+        <v>823</v>
+      </c>
+      <c r="E18" s="53"/>
+      <c r="F18" s="51"/>
       <c r="G18" s="41"/>
       <c r="H18" s="41"/>
       <c r="I18" s="41"/>
       <c r="J18" s="42"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="40"/>
-      <c r="B19" s="41"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
+      <c r="A19" s="54" t="str">
+        <f t="shared" si="0"/>
+        <v>A9</v>
+      </c>
+      <c r="B19" s="48">
+        <v>10</v>
+      </c>
+      <c r="C19" s="50">
+        <v>0.03</v>
+      </c>
+      <c r="D19" s="48">
+        <f>D18 + 1</f>
+        <v>824</v>
+      </c>
+      <c r="E19" s="53"/>
+      <c r="F19" s="51"/>
       <c r="G19" s="41"/>
       <c r="H19" s="41"/>
       <c r="I19" s="41"/>
       <c r="J19" s="42"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="40"/>
-      <c r="B20" s="41"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
+      <c r="A20" s="54" t="str">
+        <f t="shared" si="0"/>
+        <v>A10</v>
+      </c>
+      <c r="B20" s="48">
+        <v>11</v>
+      </c>
+      <c r="C20" s="50">
+        <v>0.04</v>
+      </c>
+      <c r="D20" s="48">
+        <f>D19 + 1</f>
+        <v>825</v>
+      </c>
+      <c r="E20" s="53"/>
+      <c r="F20" s="51"/>
       <c r="G20" s="41"/>
       <c r="H20" s="41"/>
       <c r="I20" s="41"/>
       <c r="J20" s="42"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="40"/>
-      <c r="B21" s="41"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
+      <c r="A21" s="54" t="str">
+        <f t="shared" si="0"/>
+        <v>A11</v>
+      </c>
+      <c r="B21" s="48">
+        <v>12</v>
+      </c>
+      <c r="C21" s="50">
+        <v>0.05</v>
+      </c>
+      <c r="D21" s="48">
+        <f>D20 + 1</f>
+        <v>826</v>
+      </c>
+      <c r="E21" s="53"/>
+      <c r="F21" s="51"/>
       <c r="G21" s="41"/>
       <c r="H21" s="41"/>
       <c r="I21" s="41"/>
       <c r="J21" s="42"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="40"/>
-      <c r="B22" s="41"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
+      <c r="A22" s="54" t="str">
+        <f t="shared" si="0"/>
+        <v>A12</v>
+      </c>
+      <c r="B22" s="48">
+        <v>13</v>
+      </c>
+      <c r="C22" s="50">
+        <v>0.06</v>
+      </c>
+      <c r="D22" s="48">
+        <f>D21 + 1</f>
+        <v>827</v>
+      </c>
+      <c r="E22" s="53"/>
+      <c r="F22" s="51"/>
       <c r="G22" s="41"/>
       <c r="H22" s="41"/>
       <c r="I22" s="41"/>
       <c r="J22" s="42"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="40"/>
-      <c r="B23" s="41"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
+      <c r="A23" s="54" t="str">
+        <f t="shared" si="0"/>
+        <v>A13</v>
+      </c>
+      <c r="B23" s="48">
+        <v>14</v>
+      </c>
+      <c r="C23" s="50">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D23" s="48">
+        <f>D22 + 1</f>
+        <v>828</v>
+      </c>
+      <c r="E23" s="53"/>
+      <c r="F23" s="51"/>
       <c r="G23" s="41"/>
       <c r="H23" s="41"/>
       <c r="I23" s="41"/>
       <c r="J23" s="42"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="40"/>
-      <c r="B24" s="41"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
+      <c r="A24" s="54" t="str">
+        <f t="shared" si="0"/>
+        <v>A14</v>
+      </c>
+      <c r="B24" s="48">
+        <v>15</v>
+      </c>
+      <c r="C24" s="50">
+        <v>0.08</v>
+      </c>
+      <c r="D24" s="48">
+        <f>D23 + 1</f>
+        <v>829</v>
+      </c>
+      <c r="E24" s="53"/>
+      <c r="F24" s="51"/>
       <c r="G24" s="41"/>
       <c r="H24" s="41"/>
       <c r="I24" s="41"/>
       <c r="J24" s="42"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="40"/>
-      <c r="B25" s="41"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
+      <c r="A25" s="54" t="str">
+        <f t="shared" si="0"/>
+        <v>A15</v>
+      </c>
+      <c r="B25" s="48">
+        <v>16</v>
+      </c>
+      <c r="C25" s="50">
+        <v>0.09</v>
+      </c>
+      <c r="D25" s="48">
+        <f>D24 + 1</f>
+        <v>830</v>
+      </c>
+      <c r="E25" s="53"/>
+      <c r="F25" s="51"/>
       <c r="G25" s="41"/>
       <c r="H25" s="41"/>
       <c r="I25" s="41"/>
       <c r="J25" s="42"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="40"/>
-      <c r="B26" s="41"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
+      <c r="A26" s="54" t="str">
+        <f t="shared" si="0"/>
+        <v>A16</v>
+      </c>
+      <c r="B26" s="48">
+        <v>17</v>
+      </c>
+      <c r="C26" s="50">
+        <v>0.1</v>
+      </c>
+      <c r="D26" s="48">
+        <f>D25 + 1</f>
+        <v>831</v>
+      </c>
+      <c r="E26" s="53"/>
+      <c r="F26" s="51"/>
       <c r="G26" s="41"/>
       <c r="H26" s="41"/>
       <c r="I26" s="41"/>
       <c r="J26" s="42"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="40"/>
-      <c r="B27" s="41"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
+      <c r="A27" s="54" t="str">
+        <f t="shared" si="0"/>
+        <v>A17</v>
+      </c>
+      <c r="B27" s="48">
+        <v>18</v>
+      </c>
+      <c r="C27" s="50">
+        <v>0.11</v>
+      </c>
+      <c r="D27" s="48">
+        <f>D26 + 1</f>
+        <v>832</v>
+      </c>
+      <c r="E27" s="53"/>
+      <c r="F27" s="51"/>
       <c r="G27" s="41"/>
       <c r="H27" s="41"/>
       <c r="I27" s="41"/>
       <c r="J27" s="42"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="40"/>
-      <c r="B28" s="41"/>
-      <c r="C28" s="41"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="41"/>
+      <c r="A28" s="54" t="str">
+        <f t="shared" si="0"/>
+        <v>A18</v>
+      </c>
+      <c r="B28" s="48">
+        <v>19</v>
+      </c>
+      <c r="C28" s="50">
+        <v>0.12</v>
+      </c>
+      <c r="D28" s="48">
+        <f>D27 + 1</f>
+        <v>833</v>
+      </c>
+      <c r="E28" s="53"/>
+      <c r="F28" s="51"/>
       <c r="G28" s="41"/>
       <c r="H28" s="41"/>
       <c r="I28" s="41"/>
       <c r="J28" s="42"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="40"/>
-      <c r="B29" s="41"/>
-      <c r="C29" s="41"/>
-      <c r="D29" s="41"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="41"/>
+      <c r="A29" s="54" t="str">
+        <f t="shared" si="0"/>
+        <v>A19</v>
+      </c>
+      <c r="B29" s="48">
+        <v>20</v>
+      </c>
+      <c r="C29" s="50">
+        <v>0.13</v>
+      </c>
+      <c r="D29" s="48">
+        <f>D28 + 1</f>
+        <v>834</v>
+      </c>
+      <c r="E29" s="53"/>
+      <c r="F29" s="51"/>
       <c r="G29" s="41"/>
       <c r="H29" s="41"/>
       <c r="I29" s="41"/>
       <c r="J29" s="42"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="40"/>
-      <c r="B30" s="41"/>
-      <c r="C30" s="41"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="41"/>
+      <c r="A30" s="54" t="str">
+        <f t="shared" si="0"/>
+        <v>A20</v>
+      </c>
+      <c r="B30" s="48">
+        <v>21</v>
+      </c>
+      <c r="C30" s="50">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D30" s="48">
+        <f>D29 + 1</f>
+        <v>835</v>
+      </c>
+      <c r="E30" s="53"/>
+      <c r="F30" s="51"/>
       <c r="G30" s="41"/>
       <c r="H30" s="41"/>
       <c r="I30" s="41"/>
       <c r="J30" s="42"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="40"/>
-      <c r="B31" s="41"/>
-      <c r="C31" s="41"/>
-      <c r="D31" s="41"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="41"/>
+      <c r="A31" s="54" t="str">
+        <f t="shared" si="0"/>
+        <v>A21</v>
+      </c>
+      <c r="B31" s="48">
+        <v>22</v>
+      </c>
+      <c r="C31" s="50">
+        <v>0.15</v>
+      </c>
+      <c r="D31" s="48">
+        <f>D30 + 1</f>
+        <v>836</v>
+      </c>
+      <c r="E31" s="53"/>
+      <c r="F31" s="51"/>
       <c r="G31" s="41"/>
       <c r="H31" s="41"/>
       <c r="I31" s="41"/>
       <c r="J31" s="42"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="40"/>
-      <c r="B32" s="41"/>
-      <c r="C32" s="41"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="41"/>
-      <c r="F32" s="41"/>
+      <c r="A32" s="54" t="str">
+        <f t="shared" si="0"/>
+        <v>A22</v>
+      </c>
+      <c r="B32" s="48">
+        <v>23</v>
+      </c>
+      <c r="C32" s="50">
+        <v>0.16</v>
+      </c>
+      <c r="D32" s="48">
+        <f>D31 + 1</f>
+        <v>837</v>
+      </c>
+      <c r="E32" s="53"/>
+      <c r="F32" s="51"/>
       <c r="G32" s="41"/>
       <c r="H32" s="41"/>
       <c r="I32" s="41"/>
       <c r="J32" s="42"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="40"/>
-      <c r="B33" s="41"/>
-      <c r="C33" s="41"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="41"/>
-      <c r="F33" s="41"/>
+      <c r="A33" s="54" t="str">
+        <f t="shared" si="0"/>
+        <v>A23</v>
+      </c>
+      <c r="B33" s="48">
+        <v>24</v>
+      </c>
+      <c r="C33" s="50">
+        <v>0.18</v>
+      </c>
+      <c r="D33" s="48">
+        <f>D32 + 1</f>
+        <v>838</v>
+      </c>
+      <c r="E33" s="53"/>
+      <c r="F33" s="51"/>
       <c r="G33" s="41"/>
       <c r="H33" s="41"/>
       <c r="I33" s="41"/>
       <c r="J33" s="42"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="40"/>
-      <c r="B34" s="41"/>
-      <c r="C34" s="41"/>
-      <c r="D34" s="41"/>
-      <c r="E34" s="41"/>
-      <c r="F34" s="41"/>
+      <c r="A34" s="54" t="str">
+        <f t="shared" si="0"/>
+        <v>A24</v>
+      </c>
+      <c r="B34" s="48">
+        <v>25</v>
+      </c>
+      <c r="C34" s="50">
+        <v>0.2</v>
+      </c>
+      <c r="D34" s="48">
+        <f>D33 + 1</f>
+        <v>839</v>
+      </c>
+      <c r="E34" s="53"/>
+      <c r="F34" s="51"/>
       <c r="G34" s="41"/>
       <c r="H34" s="41"/>
       <c r="I34" s="41"/>
       <c r="J34" s="42"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="40"/>
-      <c r="B35" s="41"/>
-      <c r="C35" s="41"/>
-      <c r="D35" s="41"/>
-      <c r="E35" s="41"/>
-      <c r="F35" s="41"/>
+      <c r="A35" s="54" t="str">
+        <f t="shared" si="0"/>
+        <v>A25</v>
+      </c>
+      <c r="B35" s="48">
+        <v>26</v>
+      </c>
+      <c r="C35" s="50">
+        <v>0.25</v>
+      </c>
+      <c r="D35" s="48">
+        <f>D34 + 1</f>
+        <v>840</v>
+      </c>
+      <c r="E35" s="53"/>
+      <c r="F35" s="51"/>
       <c r="G35" s="41"/>
       <c r="H35" s="41"/>
       <c r="I35" s="41"/>
       <c r="J35" s="42"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="40"/>
-      <c r="B36" s="41"/>
-      <c r="C36" s="41"/>
-      <c r="D36" s="41"/>
-      <c r="E36" s="41"/>
-      <c r="F36" s="41"/>
+      <c r="A36" s="54" t="str">
+        <f t="shared" si="0"/>
+        <v>A26</v>
+      </c>
+      <c r="B36" s="48">
+        <v>27</v>
+      </c>
+      <c r="C36" s="50">
+        <v>0.3</v>
+      </c>
+      <c r="D36" s="48">
+        <f>D35 + 1</f>
+        <v>841</v>
+      </c>
+      <c r="E36" s="53"/>
+      <c r="F36" s="51"/>
       <c r="G36" s="41"/>
       <c r="H36" s="41"/>
       <c r="I36" s="41"/>
       <c r="J36" s="42"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="40"/>
-      <c r="B37" s="41"/>
-      <c r="C37" s="41"/>
-      <c r="D37" s="41"/>
-      <c r="E37" s="41"/>
-      <c r="F37" s="41"/>
+      <c r="A37" s="54" t="str">
+        <f t="shared" si="0"/>
+        <v>A27</v>
+      </c>
+      <c r="B37" s="48">
+        <v>28</v>
+      </c>
+      <c r="C37" s="50">
+        <v>0.35</v>
+      </c>
+      <c r="D37" s="48">
+        <f>D36 + 1</f>
+        <v>842</v>
+      </c>
+      <c r="E37" s="53"/>
+      <c r="F37" s="51"/>
       <c r="G37" s="41"/>
       <c r="H37" s="41"/>
       <c r="I37" s="41"/>
       <c r="J37" s="42"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="40"/>
-      <c r="B38" s="41"/>
-      <c r="C38" s="41"/>
-      <c r="D38" s="41"/>
-      <c r="E38" s="41"/>
-      <c r="F38" s="41"/>
+      <c r="A38" s="54" t="str">
+        <f t="shared" si="0"/>
+        <v>A28</v>
+      </c>
+      <c r="B38" s="48">
+        <v>29</v>
+      </c>
+      <c r="C38" s="50">
+        <v>0.4</v>
+      </c>
+      <c r="D38" s="48">
+        <f>D37 + 1</f>
+        <v>843</v>
+      </c>
+      <c r="E38" s="53"/>
+      <c r="F38" s="51"/>
       <c r="G38" s="41"/>
       <c r="H38" s="41"/>
       <c r="I38" s="41"/>
       <c r="J38" s="42"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="40"/>
-      <c r="B39" s="41"/>
-      <c r="C39" s="41"/>
-      <c r="D39" s="41"/>
-      <c r="E39" s="41"/>
-      <c r="F39" s="41"/>
+      <c r="A39" s="54" t="str">
+        <f t="shared" si="0"/>
+        <v>A29</v>
+      </c>
+      <c r="B39" s="48">
+        <v>30</v>
+      </c>
+      <c r="C39" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="D39" s="48">
+        <f>D38 + 1</f>
+        <v>844</v>
+      </c>
+      <c r="E39" s="53"/>
+      <c r="F39" s="51"/>
       <c r="G39" s="41"/>
       <c r="H39" s="41"/>
       <c r="I39" s="41"/>
       <c r="J39" s="42"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="40"/>
-      <c r="B40" s="41"/>
-      <c r="C40" s="41"/>
-      <c r="D40" s="41"/>
-      <c r="E40" s="41"/>
-      <c r="F40" s="41"/>
+      <c r="A40" s="52"/>
+      <c r="B40" s="53"/>
+      <c r="C40" s="53"/>
+      <c r="D40" s="53"/>
+      <c r="E40" s="53"/>
+      <c r="F40" s="51"/>
       <c r="G40" s="41"/>
       <c r="H40" s="41"/>
       <c r="I40" s="41"/>
       <c r="J40" s="42"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="40"/>
-      <c r="B41" s="41"/>
-      <c r="C41" s="41"/>
-      <c r="D41" s="41"/>
-      <c r="E41" s="41"/>
-      <c r="F41" s="41"/>
+      <c r="A41" s="52"/>
+      <c r="B41" s="53"/>
+      <c r="C41" s="53"/>
+      <c r="D41" s="53"/>
+      <c r="E41" s="53"/>
+      <c r="F41" s="51"/>
       <c r="G41" s="41"/>
       <c r="H41" s="41"/>
       <c r="I41" s="41"/>
       <c r="J41" s="42"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="40"/>
-      <c r="B42" s="41"/>
-      <c r="C42" s="41"/>
-      <c r="D42" s="41"/>
-      <c r="E42" s="41"/>
-      <c r="F42" s="41"/>
+      <c r="A42" s="52"/>
+      <c r="B42" s="53"/>
+      <c r="C42" s="53"/>
+      <c r="D42" s="53"/>
+      <c r="E42" s="53"/>
+      <c r="F42" s="51"/>
       <c r="G42" s="41"/>
       <c r="H42" s="41"/>
       <c r="I42" s="41"/>
       <c r="J42" s="42"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="40"/>
-      <c r="B43" s="41"/>
-      <c r="C43" s="41"/>
-      <c r="D43" s="41"/>
-      <c r="E43" s="41"/>
-      <c r="F43" s="41"/>
+      <c r="A43" s="52"/>
+      <c r="B43" s="53"/>
+      <c r="C43" s="53"/>
+      <c r="D43" s="53"/>
+      <c r="E43" s="53"/>
+      <c r="F43" s="51"/>
       <c r="G43" s="41"/>
       <c r="H43" s="41"/>
       <c r="I43" s="41"/>
       <c r="J43" s="42"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="40"/>
-      <c r="B44" s="41"/>
-      <c r="C44" s="41"/>
-      <c r="D44" s="41"/>
-      <c r="E44" s="41"/>
-      <c r="F44" s="41"/>
+      <c r="A44" s="52"/>
+      <c r="B44" s="53"/>
+      <c r="C44" s="53"/>
+      <c r="D44" s="53"/>
+      <c r="E44" s="53"/>
+      <c r="F44" s="51"/>
       <c r="G44" s="41"/>
       <c r="H44" s="41"/>
       <c r="I44" s="41"/>
       <c r="J44" s="42"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="40"/>
-      <c r="B45" s="41"/>
-      <c r="C45" s="41"/>
-      <c r="D45" s="41"/>
-      <c r="E45" s="41"/>
+      <c r="A45" s="52"/>
+      <c r="B45" s="53"/>
+      <c r="C45" s="53"/>
+      <c r="D45" s="53"/>
+      <c r="E45" s="53"/>
       <c r="F45" s="41"/>
       <c r="G45" s="41"/>
       <c r="H45" s="41"/>
@@ -2027,11 +2369,11 @@
       <c r="J45" s="42"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="40"/>
-      <c r="B46" s="41"/>
-      <c r="C46" s="41"/>
-      <c r="D46" s="41"/>
-      <c r="E46" s="41"/>
+      <c r="A46" s="52"/>
+      <c r="B46" s="53"/>
+      <c r="C46" s="53"/>
+      <c r="D46" s="53"/>
+      <c r="E46" s="53"/>
       <c r="F46" s="41"/>
       <c r="G46" s="41"/>
       <c r="H46" s="41"/>
@@ -2149,7 +2491,7 @@
   <dimension ref="A1:J54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2161,18 +2503,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>13</v>
+      <c r="A1" s="5" t="str">
+        <f ca="1">"TABLE " &amp; C1</f>
+        <v>TABLE A1</v>
       </c>
       <c r="B1" s="5"/>
+      <c r="C1" t="str" cm="1">
+        <f t="array" aca="1" ref="C1" ca="1">MID(CELL("filename"),FIND("]", CELL("filename")) + 1, 255)</f>
+        <v>A1</v>
+      </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="2">
+        <f ca="1">VLOOKUP(C1,Summary!A10:'Summary'!D39, 3, FALSE)</f>
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="I1" s="6" t="s">
-        <v>14</v>
+      <c r="I1" s="6" t="str">
+        <f ca="1">"p. " &amp; VLOOKUP(C1,Summary!A10:'Summary'!D39, 4, FALSE)</f>
+        <v>p. 816</v>
       </c>
       <c r="J1" s="6"/>
     </row>
@@ -2231,35 +2580,35 @@
         <v>1</v>
       </c>
       <c r="B5" s="23">
-        <f>POWER((1 + $F$1), $A5)</f>
+        <f ca="1">POWER((1 + $F$1), $A5)</f>
         <v>1.0024999999999999</v>
       </c>
       <c r="C5" s="23">
-        <f>POWER((1 + $F$1), -$A5)</f>
+        <f ca="1">POWER((1 + $F$1), -$A5)</f>
         <v>0.99750623441396513</v>
       </c>
       <c r="D5" s="25">
-        <f>($B5 - 1) / $F$1</f>
+        <f ca="1">($B5 - 1) / $F$1</f>
         <v>0.99999999999997868</v>
       </c>
       <c r="E5" s="25">
-        <f>1/D5</f>
+        <f ca="1">1/D5</f>
         <v>1.0000000000000213</v>
       </c>
       <c r="F5" s="25">
-        <f>($B5 - 1) / ($F$1 * $B5)</f>
+        <f ca="1">($B5 - 1) / ($F$1 * $B5)</f>
         <v>0.99750623441394393</v>
       </c>
       <c r="G5" s="25">
-        <f>1/F5</f>
+        <f ca="1">1/F5</f>
         <v>1.0025000000000213</v>
       </c>
       <c r="H5" s="27">
-        <f>I5*G5</f>
+        <f ca="1">I5*G5</f>
         <v>0</v>
       </c>
       <c r="I5" s="27">
-        <f>($B5 - $F$1*$A5 - 1) / ($F$1 * $F$1 * B5)</f>
+        <f ca="1">($B5 - $F$1*$A5 - 1) / ($F$1 * $F$1 * B5)</f>
         <v>0</v>
       </c>
       <c r="J5" s="33">
@@ -2272,35 +2621,35 @@
         <v>2</v>
       </c>
       <c r="B6" s="14">
-        <f>POWER((1 + $F$1), $A6)</f>
+        <f ca="1">POWER((1 + $F$1), $A6)</f>
         <v>1.0050062499999999</v>
       </c>
       <c r="C6" s="14">
-        <f>POWER((1 + $F$1), -$A6)</f>
+        <f ca="1">POWER((1 + $F$1), -$A6)</f>
         <v>0.99501868769472834</v>
       </c>
       <c r="D6" s="16">
-        <f>($B6 - 1) / $F$1</f>
+        <f ca="1">($B6 - 1) / $F$1</f>
         <v>2.0024999999999515</v>
       </c>
       <c r="E6" s="16">
-        <f>1/D6</f>
+        <f ca="1">1/D6</f>
         <v>0.49937578027466878</v>
       </c>
       <c r="F6" s="16">
-        <f>($B6 - 1) / ($F$1 * $B6)</f>
+        <f ca="1">($B6 - 1) / ($F$1 * $B6)</f>
         <v>1.9925249221086454</v>
       </c>
       <c r="G6" s="16">
-        <f t="shared" ref="G6:G54" si="0">1/F6</f>
+        <f t="shared" ref="G6:G54" ca="1" si="0">1/F6</f>
         <v>0.50187578027466873</v>
       </c>
       <c r="H6" s="18">
-        <f t="shared" ref="H6:H54" si="1">I6*G6</f>
+        <f t="shared" ref="H6:H54" ca="1" si="1">I6*G6</f>
         <v>0.49937578027350488</v>
       </c>
       <c r="I6" s="18">
-        <f>($B6 - $F$1*$A6 - 1) / ($F$1 * $F$1 * B6)</f>
+        <f ca="1">($B6 - $F$1*$A6 - 1) / ($F$1 * $F$1 * B6)</f>
         <v>0.99501868769240942</v>
       </c>
       <c r="J6" s="34">
@@ -2313,35 +2662,35 @@
         <v>3</v>
       </c>
       <c r="B7" s="23">
-        <f>POWER((1 + $F$1), $A7)</f>
+        <f ca="1">POWER((1 + $F$1), $A7)</f>
         <v>1.0075187656249998</v>
       </c>
       <c r="C7" s="23">
-        <f>POWER((1 + $F$1), -$A7)</f>
+        <f ca="1">POWER((1 + $F$1), -$A7)</f>
         <v>0.99253734433389373</v>
       </c>
       <c r="D7" s="25">
-        <f>($B7 - 1) / $F$1</f>
+        <f ca="1">($B7 - 1) / $F$1</f>
         <v>3.0075062499999028</v>
       </c>
       <c r="E7" s="25">
-        <f>1/D7</f>
+        <f ca="1">1/D7</f>
         <v>0.33250138715423527</v>
       </c>
       <c r="F7" s="25">
-        <f>($B7 - 1) / ($F$1 * $B7)</f>
+        <f ca="1">($B7 - 1) / ($F$1 * $B7)</f>
         <v>2.9850622664424908</v>
       </c>
       <c r="G7" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0.33500138715423533</v>
       </c>
       <c r="H7" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0.99833541491435529</v>
       </c>
       <c r="I7" s="27">
-        <f>($B7 - $F$1*$A7 - 1) / ($F$1 * $F$1 * B7)</f>
+        <f ca="1">($B7 - $F$1*$A7 - 1) / ($F$1 * $F$1 * B7)</f>
         <v>2.9800933763140498</v>
       </c>
       <c r="J7" s="34">
@@ -2354,35 +2703,35 @@
         <v>4</v>
       </c>
       <c r="B8" s="14">
-        <f>POWER((1 + $F$1), $A8)</f>
+        <f ca="1">POWER((1 + $F$1), $A8)</f>
         <v>1.0100375625390623</v>
       </c>
       <c r="C8" s="14">
-        <f>POWER((1 + $F$1), -$A8)</f>
+        <f ca="1">POWER((1 + $F$1), -$A8)</f>
         <v>0.99006218886173936</v>
       </c>
       <c r="D8" s="16">
-        <f>($B8 - 1) / $F$1</f>
+        <f ca="1">($B8 - 1) / $F$1</f>
         <v>4.0150250156249179</v>
       </c>
       <c r="E8" s="16">
-        <f t="shared" ref="E8:E54" si="3">1/D8</f>
+        <f t="shared" ref="E8:E54" ca="1" si="3">1/D8</f>
         <v>0.24906445068421451</v>
       </c>
       <c r="F8" s="16">
-        <f>($B8 - 1) / ($F$1 * $B8)</f>
+        <f ca="1">($B8 - 1) / ($F$1 * $B8)</f>
         <v>3.9751244553042455</v>
       </c>
       <c r="G8" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0.25156445068421451</v>
       </c>
       <c r="H8" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1.4968789052564098</v>
       </c>
       <c r="I8" s="18">
-        <f>($B8 - $F$1*$A8 - 1) / ($F$1 * $F$1 * B8)</f>
+        <f ca="1">($B8 - $F$1*$A8 - 1) / ($F$1 * $F$1 * B8)</f>
         <v>5.9502799429138014</v>
       </c>
       <c r="J8" s="34">
@@ -2395,35 +2744,35 @@
         <v>5</v>
       </c>
       <c r="B9" s="24">
-        <f>POWER((1 + $F$1), $A9)</f>
+        <f ca="1">POWER((1 + $F$1), $A9)</f>
         <v>1.01256265644541</v>
       </c>
       <c r="C9" s="24">
-        <f>POWER((1 + $F$1), -$A9)</f>
+        <f ca="1">POWER((1 + $F$1), -$A9)</f>
         <v>0.98759320584712151</v>
       </c>
       <c r="D9" s="26">
-        <f>($B9 - 1) / $F$1</f>
+        <f ca="1">($B9 - 1) / $F$1</f>
         <v>5.0250625781639968</v>
       </c>
       <c r="E9" s="26">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0.1990024968734557</v>
       </c>
       <c r="F9" s="26">
-        <f>($B9 - 1) / ($F$1 * $B9)</f>
+        <f ca="1">($B9 - 1) / ($F$1 * $B9)</f>
         <v>4.962717661151383</v>
       </c>
       <c r="G9" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0.2015024968734557</v>
       </c>
       <c r="H9" s="28">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1.9950062530900201</v>
       </c>
       <c r="I9" s="28">
-        <f>($B9 - $F$1*$A9 - 1) / ($F$1 * $F$1 * B9)</f>
+        <f ca="1">($B9 - $F$1*$A9 - 1) / ($F$1 * $F$1 * B9)</f>
         <v>9.9006527663172896</v>
       </c>
       <c r="J9" s="35">
@@ -2436,35 +2785,35 @@
         <v>6</v>
       </c>
       <c r="B10" s="14">
-        <f>POWER((1 + $F$1), $A10)</f>
+        <f ca="1">POWER((1 + $F$1), $A10)</f>
         <v>1.0150940630865233</v>
       </c>
       <c r="C10" s="14">
-        <f>POWER((1 + $F$1), -$A10)</f>
+        <f ca="1">POWER((1 + $F$1), -$A10)</f>
         <v>0.98513037989737828</v>
       </c>
       <c r="D10" s="16">
-        <f>($B10 - 1) / $F$1</f>
+        <f ca="1">($B10 - 1) / $F$1</f>
         <v>6.0376252346093118</v>
       </c>
       <c r="E10" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0.16562803439135768</v>
       </c>
       <c r="F10" s="16">
-        <f>($B10 - 1) / ($F$1 * $B10)</f>
+        <f ca="1">($B10 - 1) / ($F$1 * $B10)</f>
         <v>5.9478480410486698</v>
       </c>
       <c r="G10" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0.16812803439135765</v>
       </c>
       <c r="H10" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v>2.4927174607441853</v>
       </c>
       <c r="I10" s="18">
-        <f>($B10 - $F$1*$A10 - 1) / ($F$1 * $F$1 * B10)</f>
+        <f ca="1">($B10 - $F$1*$A10 - 1) / ($F$1 * $F$1 * B10)</f>
         <v>14.826304665775117</v>
       </c>
       <c r="J10" s="34">
@@ -2477,35 +2826,35 @@
         <v>7</v>
       </c>
       <c r="B11" s="23">
-        <f>POWER((1 + $F$1), $A11)</f>
+        <f ca="1">POWER((1 + $F$1), $A11)</f>
         <v>1.0176317982442395</v>
       </c>
       <c r="C11" s="23">
-        <f>POWER((1 + $F$1), -$A11)</f>
+        <f ca="1">POWER((1 + $F$1), -$A11)</f>
         <v>0.98267369565823282</v>
       </c>
       <c r="D11" s="25">
-        <f>($B11 - 1) / $F$1</f>
+        <f ca="1">($B11 - 1) / $F$1</f>
         <v>7.0527192976958197</v>
       </c>
       <c r="E11" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0.14178928123889861</v>
       </c>
       <c r="F11" s="25">
-        <f>($B11 - 1) / ($F$1 * $B11)</f>
+        <f ca="1">($B11 - 1) / ($F$1 * $B11)</f>
         <v>6.9305217367068872</v>
       </c>
       <c r="G11" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0.14428928123889859</v>
       </c>
       <c r="H11" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v>2.9900125310823094</v>
       </c>
       <c r="I11" s="27">
-        <f>($B11 - $F$1*$A11 - 1) / ($F$1 * $F$1 * B11)</f>
+        <f ca="1">($B11 - $F$1*$A11 - 1) / ($F$1 * $F$1 * B11)</f>
         <v>20.722346839691923</v>
       </c>
       <c r="J11" s="34">
@@ -2518,35 +2867,35 @@
         <v>8</v>
       </c>
       <c r="B12" s="14">
-        <f>POWER((1 + $F$1), $A12)</f>
+        <f ca="1">POWER((1 + $F$1), $A12)</f>
         <v>1.0201758777398502</v>
       </c>
       <c r="C12" s="14">
-        <f>POWER((1 + $F$1), -$A12)</f>
+        <f ca="1">POWER((1 + $F$1), -$A12)</f>
         <v>0.98022313781369852</v>
       </c>
       <c r="D12" s="16">
-        <f>($B12 - 1) / $F$1</f>
+        <f ca="1">($B12 - 1) / $F$1</f>
         <v>8.0703510959400759</v>
       </c>
       <c r="E12" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0.12391034641641137</v>
       </c>
       <c r="F12" s="16">
-        <f>($B12 - 1) / ($F$1 * $B12)</f>
+        <f ca="1">($B12 - 1) / ($F$1 * $B12)</f>
         <v>7.9107448745206019</v>
       </c>
       <c r="G12" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0.12641034641641138</v>
       </c>
       <c r="H12" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v>3.4868914674832485</v>
       </c>
       <c r="I12" s="18">
-        <f>($B12 - $F$1*$A12 - 1) / ($F$1 * $F$1 * B12)</f>
+        <f ca="1">($B12 - $F$1*$A12 - 1) / ($F$1 * $F$1 * B12)</f>
         <v>27.583908804402725</v>
       </c>
       <c r="J12" s="34">
@@ -2559,35 +2908,35 @@
         <v>9</v>
       </c>
       <c r="B13" s="23">
-        <f>POWER((1 + $F$1), $A13)</f>
+        <f ca="1">POWER((1 + $F$1), $A13)</f>
         <v>1.0227263174341998</v>
       </c>
       <c r="C13" s="23">
-        <f>POWER((1 + $F$1), -$A13)</f>
+        <f ca="1">POWER((1 + $F$1), -$A13)</f>
         <v>0.97777869108598348</v>
       </c>
       <c r="D13" s="25">
-        <f>($B13 - 1) / $F$1</f>
+        <f ca="1">($B13 - 1) / $F$1</f>
         <v>9.0905269736799355</v>
       </c>
       <c r="E13" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0.11000462381282503</v>
       </c>
       <c r="F13" s="25">
-        <f>($B13 - 1) / ($F$1 * $B13)</f>
+        <f ca="1">($B13 - 1) / ($F$1 * $B13)</f>
         <v>8.8885235656065955</v>
       </c>
       <c r="G13" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0.112504623812825</v>
       </c>
       <c r="H13" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v>3.9833542738305487</v>
       </c>
       <c r="I13" s="27">
-        <f>($B13 - $F$1*$A13 - 1) / ($F$1 * $F$1 * B13)</f>
+        <f ca="1">($B13 - $F$1*$A13 - 1) / ($F$1 * $F$1 * B13)</f>
         <v>35.406138333102582</v>
       </c>
       <c r="J13" s="34">
@@ -2600,35 +2949,35 @@
         <v>10</v>
       </c>
       <c r="B14" s="20">
-        <f>POWER((1 + $F$1), $A14)</f>
+        <f ca="1">POWER((1 + $F$1), $A14)</f>
         <v>1.0252831332277852</v>
       </c>
       <c r="C14" s="20">
-        <f>POWER((1 + $F$1), -$A14)</f>
+        <f ca="1">POWER((1 + $F$1), -$A14)</f>
         <v>0.97534034023539518</v>
       </c>
       <c r="D14" s="21">
-        <f>($B14 - 1) / $F$1</f>
+        <f ca="1">($B14 - 1) / $F$1</f>
         <v>10.113253291114077</v>
       </c>
       <c r="E14" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v>9.8880149761367234E-2</v>
       </c>
       <c r="F14" s="21">
-        <f>($B14 - 1) / ($F$1 * $B14)</f>
+        <f ca="1">($B14 - 1) / ($F$1 * $B14)</f>
         <v>9.8638639058419351</v>
       </c>
       <c r="G14" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0.10138014976136722</v>
       </c>
       <c r="H14" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v>4.4794009545324709</v>
       </c>
       <c r="I14" s="22">
-        <f>($B14 - $F$1*$A14 - 1) / ($F$1 * $F$1 * B14)</f>
+        <f ca="1">($B14 - $F$1*$A14 - 1) / ($F$1 * $F$1 * B14)</f>
         <v>44.184201395206749</v>
       </c>
       <c r="J14" s="35">
@@ -2641,35 +2990,35 @@
         <v>11</v>
       </c>
       <c r="B15" s="23">
-        <f>POWER((1 + $F$1), $A15)</f>
+        <f ca="1">POWER((1 + $F$1), $A15)</f>
         <v>1.0278463410608545</v>
       </c>
       <c r="C15" s="23">
-        <f>POWER((1 + $F$1), -$A15)</f>
+        <f ca="1">POWER((1 + $F$1), -$A15)</f>
         <v>0.97290807006024471</v>
       </c>
       <c r="D15" s="25">
-        <f>($B15 - 1) / $F$1</f>
+        <f ca="1">($B15 - 1) / $F$1</f>
         <v>11.138536424341794</v>
       </c>
       <c r="E15" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v>8.9778401928518423E-2</v>
       </c>
       <c r="F15" s="25">
-        <f>($B15 - 1) / ($F$1 * $B15)</f>
+        <f ca="1">($B15 - 1) / ($F$1 * $B15)</f>
         <v>10.836771975902113</v>
       </c>
       <c r="G15" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>9.2278401928518425E-2</v>
       </c>
       <c r="H15" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v>4.975031514517795</v>
       </c>
       <c r="I15" s="27">
-        <f>($B15 - $F$1*$A15 - 1) / ($F$1 * $F$1 * B15)</f>
+        <f ca="1">($B15 - $F$1*$A15 - 1) / ($F$1 * $F$1 * B15)</f>
         <v>53.913282095756287</v>
       </c>
       <c r="J15" s="34">
@@ -2682,35 +3031,35 @@
         <v>12</v>
       </c>
       <c r="B16" s="14">
-        <f>POWER((1 + $F$1), $A16)</f>
+        <f ca="1">POWER((1 + $F$1), $A16)</f>
         <v>1.0304159569135067</v>
       </c>
       <c r="C16" s="14">
-        <f>POWER((1 + $F$1), -$A16)</f>
+        <f ca="1">POWER((1 + $F$1), -$A16)</f>
         <v>0.97048186539675274</v>
       </c>
       <c r="D16" s="16">
-        <f>($B16 - 1) / $F$1</f>
+        <f ca="1">($B16 - 1) / $F$1</f>
         <v>12.166382765402695</v>
       </c>
       <c r="E16" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v>8.219369875849053E-2</v>
       </c>
       <c r="F16" s="16">
-        <f>($B16 - 1) / ($F$1 * $B16)</f>
+        <f ca="1">($B16 - 1) / ($F$1 * $B16)</f>
         <v>11.807253841298911</v>
       </c>
       <c r="G16" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>8.4693698758490518E-2</v>
       </c>
       <c r="H16" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v>5.47024595924512</v>
       </c>
       <c r="I16" s="18">
-        <f>($B16 - $F$1*$A16 - 1) / ($F$1 * $F$1 * B16)</f>
+        <f ca="1">($B16 - $F$1*$A16 - 1) / ($F$1 * $F$1 * B16)</f>
         <v>64.588582615146791</v>
       </c>
       <c r="J16" s="34">
@@ -2723,35 +3072,35 @@
         <v>13</v>
       </c>
       <c r="B17" s="23">
-        <f>POWER((1 + $F$1), $A17)</f>
+        <f ca="1">POWER((1 + $F$1), $A17)</f>
         <v>1.0329919968057906</v>
       </c>
       <c r="C17" s="23">
-        <f>POWER((1 + $F$1), -$A17)</f>
+        <f ca="1">POWER((1 + $F$1), -$A17)</f>
         <v>0.96806171111895523</v>
       </c>
       <c r="D17" s="25">
-        <f>($B17 - 1) / $F$1</f>
+        <f ca="1">($B17 - 1) / $F$1</f>
         <v>13.196798722316228</v>
       </c>
       <c r="E17" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v>7.5775953020255332E-2</v>
       </c>
       <c r="F17" s="25">
-        <f>($B17 - 1) / ($F$1 * $B17)</f>
+        <f ca="1">($B17 - 1) / ($F$1 * $B17)</f>
         <v>12.775315552417888</v>
       </c>
       <c r="G17" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>7.8275953020255334E-2</v>
       </c>
       <c r="H17" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v>5.965044294672615</v>
       </c>
       <c r="I17" s="27">
-        <f>($B17 - $F$1*$A17 - 1) / ($F$1 * $F$1 * B17)</f>
+        <f ca="1">($B17 - $F$1*$A17 - 1) / ($F$1 * $F$1 * B17)</f>
         <v>76.205323148592655</v>
       </c>
       <c r="J17" s="34">
@@ -2764,35 +3113,35 @@
         <v>14</v>
       </c>
       <c r="B18" s="14">
-        <f>POWER((1 + $F$1), $A18)</f>
+        <f ca="1">POWER((1 + $F$1), $A18)</f>
         <v>1.0355744767978048</v>
       </c>
       <c r="C18" s="14">
-        <f>POWER((1 + $F$1), -$A18)</f>
+        <f ca="1">POWER((1 + $F$1), -$A18)</f>
         <v>0.96564759213860896</v>
       </c>
       <c r="D18" s="16">
-        <f>($B18 - 1) / $F$1</f>
+        <f ca="1">($B18 - 1) / $F$1</f>
         <v>14.229790719121915</v>
       </c>
       <c r="E18" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v>7.0275102405842518E-2</v>
       </c>
       <c r="F18" s="16">
-        <f>($B18 - 1) / ($F$1 * $B18)</f>
+        <f ca="1">($B18 - 1) / ($F$1 * $B18)</f>
         <v>13.740963144556403</v>
       </c>
       <c r="G18" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>7.2775102405842507E-2</v>
       </c>
       <c r="H18" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v>6.4594265272828144</v>
       </c>
       <c r="I18" s="18">
-        <f>($B18 - $F$1*$A18 - 1) / ($F$1 * $F$1 * B18)</f>
+        <f ca="1">($B18 - $F$1*$A18 - 1) / ($F$1 * $F$1 * B18)</f>
         <v>88.758741846363122</v>
       </c>
       <c r="J18" s="34">
@@ -2805,35 +3154,35 @@
         <v>15</v>
       </c>
       <c r="B19" s="24">
-        <f>POWER((1 + $F$1), $A19)</f>
+        <f ca="1">POWER((1 + $F$1), $A19)</f>
         <v>1.0381634129897992</v>
       </c>
       <c r="C19" s="24">
-        <f>POWER((1 + $F$1), -$A19)</f>
+        <f ca="1">POWER((1 + $F$1), -$A19)</f>
         <v>0.9632394934050964</v>
       </c>
       <c r="D19" s="26">
-        <f>($B19 - 1) / $F$1</f>
+        <f ca="1">($B19 - 1) / $F$1</f>
         <v>15.265365195919678</v>
       </c>
       <c r="E19" s="26">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v>6.5507767889319335E-2</v>
       </c>
       <c r="F19" s="26">
-        <f>($B19 - 1) / ($F$1 * $B19)</f>
+        <f ca="1">($B19 - 1) / ($F$1 * $B19)</f>
         <v>14.70420263796146</v>
       </c>
       <c r="G19" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>6.8007767889319337E-2</v>
       </c>
       <c r="H19" s="28">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v>6.9533926640830739</v>
       </c>
       <c r="I19" s="28">
-        <f>($B19 - $F$1*$A19 - 1) / ($F$1 * $F$1 * B19)</f>
+        <f ca="1">($B19 - $F$1*$A19 - 1) / ($F$1 * $F$1 * B19)</f>
         <v>102.24409475399219</v>
       </c>
       <c r="J19" s="35">
@@ -2846,35 +3195,35 @@
         <v>16</v>
       </c>
       <c r="B20" s="14">
-        <f>POWER((1 + $F$1), $A20)</f>
+        <f ca="1">POWER((1 + $F$1), $A20)</f>
         <v>1.0407588215222738</v>
       </c>
       <c r="C20" s="14">
-        <f>POWER((1 + $F$1), -$A20)</f>
+        <f ca="1">POWER((1 + $F$1), -$A20)</f>
         <v>0.9608373999053329</v>
       </c>
       <c r="D20" s="16">
-        <f>($B20 - 1) / $F$1</f>
+        <f ca="1">($B20 - 1) / $F$1</f>
         <v>16.303528608909534</v>
       </c>
       <c r="E20" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v>6.1336415201155972E-2</v>
       </c>
       <c r="F20" s="16">
-        <f>($B20 - 1) / ($F$1 * $B20)</f>
+        <f ca="1">($B20 - 1) / ($F$1 * $B20)</f>
         <v>15.665040037866847</v>
       </c>
       <c r="G20" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>6.383641520115596E-2</v>
       </c>
       <c r="H20" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v>7.4469427126014462</v>
       </c>
       <c r="I20" s="18">
-        <f>($B20 - $F$1*$A20 - 1) / ($F$1 * $F$1 * B20)</f>
+        <f ca="1">($B20 - $F$1*$A20 - 1) / ($F$1 * $F$1 * B20)</f>
         <v>116.6566557526024</v>
       </c>
       <c r="J20" s="34">
@@ -2887,35 +3236,35 @@
         <v>17</v>
       </c>
       <c r="B21" s="23">
-        <f>POWER((1 + $F$1), $A21)</f>
+        <f ca="1">POWER((1 + $F$1), $A21)</f>
         <v>1.0433607185760794</v>
       </c>
       <c r="C21" s="23">
-        <f>POWER((1 + $F$1), -$A21)</f>
+        <f ca="1">POWER((1 + $F$1), -$A21)</f>
         <v>0.95844129666367384</v>
       </c>
       <c r="D21" s="25">
-        <f>($B21 - 1) / $F$1</f>
+        <f ca="1">($B21 - 1) / $F$1</f>
         <v>17.344287430431748</v>
       </c>
       <c r="E21" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v>5.7655871076342464E-2</v>
       </c>
       <c r="F21" s="25">
-        <f>($B21 - 1) / ($F$1 * $B21)</f>
+        <f ca="1">($B21 - 1) / ($F$1 * $B21)</f>
         <v>16.623481334530467</v>
       </c>
       <c r="G21" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>6.0155871076342453E-2</v>
       </c>
       <c r="H21" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v>7.9400766808714085</v>
       </c>
       <c r="I21" s="27">
-        <f>($B21 - $F$1*$A21 - 1) / ($F$1 * $F$1 * B21)</f>
+        <f ca="1">($B21 - $F$1*$A21 - 1) / ($F$1 * $F$1 * B21)</f>
         <v>131.99171649920649</v>
       </c>
       <c r="J21" s="34">
@@ -2928,35 +3277,35 @@
         <v>18</v>
       </c>
       <c r="B22" s="14">
-        <f>POWER((1 + $F$1), $A22)</f>
+        <f ca="1">POWER((1 + $F$1), $A22)</f>
         <v>1.0459691203725197</v>
       </c>
       <c r="C22" s="14">
-        <f>POWER((1 + $F$1), -$A22)</f>
+        <f ca="1">POWER((1 + $F$1), -$A22)</f>
         <v>0.95605116874181917</v>
       </c>
       <c r="D22" s="16">
-        <f>($B22 - 1) / $F$1</f>
+        <f ca="1">($B22 - 1) / $F$1</f>
         <v>18.387648149007862</v>
       </c>
       <c r="E22" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v>5.4384334086464273E-2</v>
       </c>
       <c r="F22" s="16">
-        <f>($B22 - 1) / ($F$1 * $B22)</f>
+        <f ca="1">($B22 - 1) / ($F$1 * $B22)</f>
         <v>17.579532503272315</v>
       </c>
       <c r="G22" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>5.6884334086464275E-2</v>
       </c>
       <c r="H22" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v>8.4327945774578499</v>
       </c>
       <c r="I22" s="18">
-        <f>($B22 - $F$1*$A22 - 1) / ($F$1 * $F$1 * B22)</f>
+        <f ca="1">($B22 - $F$1*$A22 - 1) / ($F$1 * $F$1 * B22)</f>
         <v>148.24458636783879</v>
       </c>
       <c r="J22" s="34">
@@ -2969,35 +3318,35 @@
         <v>19</v>
       </c>
       <c r="B23" s="23">
-        <f>POWER((1 + $F$1), $A23)</f>
+        <f ca="1">POWER((1 + $F$1), $A23)</f>
         <v>1.0485840431734508</v>
       </c>
       <c r="C23" s="23">
-        <f>POWER((1 + $F$1), -$A23)</f>
+        <f ca="1">POWER((1 + $F$1), -$A23)</f>
         <v>0.95366700123872261</v>
       </c>
       <c r="D23" s="25">
-        <f>($B23 - 1) / $F$1</f>
+        <f ca="1">($B23 - 1) / $F$1</f>
         <v>19.43361726938031</v>
       </c>
       <c r="E23" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v>5.1457224156390292E-2</v>
       </c>
       <c r="F23" s="25">
-        <f>($B23 - 1) / ($F$1 * $B23)</f>
+        <f ca="1">($B23 - 1) / ($F$1 * $B23)</f>
         <v>18.533199504510975</v>
       </c>
       <c r="G23" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>5.3957224156390281E-2</v>
       </c>
       <c r="H23" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v>8.9250964114329872</v>
       </c>
       <c r="I23" s="27">
-        <f>($B23 - $F$1*$A23 - 1) / ($F$1 * $F$1 * B23)</f>
+        <f ca="1">($B23 - $F$1*$A23 - 1) / ($F$1 * $F$1 * B23)</f>
         <v>165.41059239008251</v>
       </c>
       <c r="J23" s="34">
@@ -3010,35 +3359,35 @@
         <v>20</v>
       </c>
       <c r="B24" s="20">
-        <f>POWER((1 + $F$1), $A24)</f>
+        <f ca="1">POWER((1 + $F$1), $A24)</f>
         <v>1.0512055032813845</v>
       </c>
       <c r="C24" s="20">
-        <f>POWER((1 + $F$1), -$A24)</f>
+        <f ca="1">POWER((1 + $F$1), -$A24)</f>
         <v>0.95128877929049627</v>
       </c>
       <c r="D24" s="21">
-        <f>($B24 - 1) / $F$1</f>
+        <f ca="1">($B24 - 1) / $F$1</f>
         <v>20.482201312553805</v>
       </c>
       <c r="E24" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v>4.882287722594969E-2</v>
       </c>
       <c r="F24" s="21">
-        <f>($B24 - 1) / ($F$1 * $B24)</f>
+        <f ca="1">($B24 - 1) / ($F$1 * $B24)</f>
         <v>19.484488283801511</v>
       </c>
       <c r="G24" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>5.1322877225949685E-2</v>
       </c>
       <c r="H24" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v>9.416982192402136</v>
       </c>
       <c r="I24" s="22">
-        <f>($B24 - $F$1*$A24 - 1) / ($F$1 * $F$1 * B24)</f>
+        <f ca="1">($B24 - $F$1*$A24 - 1) / ($F$1 * $F$1 * B24)</f>
         <v>183.48507919662688</v>
       </c>
       <c r="J24" s="35">
@@ -3051,35 +3400,35 @@
         <v>21</v>
       </c>
       <c r="B25" s="23">
-        <f>POWER((1 + $F$1), $A25)</f>
+        <f ca="1">POWER((1 + $F$1), $A25)</f>
         <v>1.0538335170395878</v>
       </c>
       <c r="C25" s="23">
-        <f>POWER((1 + $F$1), -$A25)</f>
+        <f ca="1">POWER((1 + $F$1), -$A25)</f>
         <v>0.94891648807032059</v>
       </c>
       <c r="D25" s="25">
-        <f>($B25 - 1) / $F$1</f>
+        <f ca="1">($B25 - 1) / $F$1</f>
         <v>21.533406815835132</v>
       </c>
       <c r="E25" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v>4.6439470008276855E-2</v>
       </c>
       <c r="F25" s="25">
-        <f>($B25 - 1) / ($F$1 * $B25)</f>
+        <f ca="1">($B25 - 1) / ($F$1 * $B25)</f>
         <v>20.433404771871775</v>
       </c>
       <c r="G25" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>4.8939470008276857E-2</v>
       </c>
       <c r="H25" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v>9.9084519304744951</v>
       </c>
       <c r="I25" s="27">
-        <f>($B25 - $F$1*$A25 - 1) / ($F$1 * $F$1 * B25)</f>
+        <f ca="1">($B25 - $F$1*$A25 - 1) / ($F$1 * $F$1 * B25)</f>
         <v>202.46340895801967</v>
       </c>
       <c r="J25" s="34">
@@ -3092,35 +3441,35 @@
         <v>22</v>
       </c>
       <c r="B26" s="14">
-        <f>POWER((1 + $F$1), $A26)</f>
+        <f ca="1">POWER((1 + $F$1), $A26)</f>
         <v>1.0564681008321866</v>
       </c>
       <c r="C26" s="14">
-        <f>POWER((1 + $F$1), -$A26)</f>
+        <f ca="1">POWER((1 + $F$1), -$A26)</f>
         <v>0.94655011278834988</v>
       </c>
       <c r="D26" s="16">
-        <f>($B26 - 1) / $F$1</f>
+        <f ca="1">($B26 - 1) / $F$1</f>
         <v>22.587240332874625</v>
       </c>
       <c r="E26" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v>4.4272783450422175E-2</v>
       </c>
       <c r="F26" s="16">
-        <f>($B26 - 1) / ($F$1 * $B26)</f>
+        <f ca="1">($B26 - 1) / ($F$1 * $B26)</f>
         <v>21.379954884660044</v>
       </c>
       <c r="G26" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>4.677278345042217E-2</v>
       </c>
       <c r="H26" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v>10.399505636285285</v>
       </c>
       <c r="I26" s="18">
-        <f>($B26 - $F$1*$A26 - 1) / ($F$1 * $F$1 * B26)</f>
+        <f ca="1">($B26 - $F$1*$A26 - 1) / ($F$1 * $F$1 * B26)</f>
         <v>222.34096132654724</v>
       </c>
       <c r="J26" s="34">
@@ -3133,35 +3482,35 @@
         <v>23</v>
       </c>
       <c r="B27" s="23">
-        <f>POWER((1 + $F$1), $A27)</f>
+        <f ca="1">POWER((1 + $F$1), $A27)</f>
         <v>1.0591092710842671</v>
       </c>
       <c r="C27" s="23">
-        <f>POWER((1 + $F$1), -$A27)</f>
+        <f ca="1">POWER((1 + $F$1), -$A27)</f>
         <v>0.94418963869162076</v>
       </c>
       <c r="D27" s="25">
-        <f>($B27 - 1) / $F$1</f>
+        <f ca="1">($B27 - 1) / $F$1</f>
         <v>23.643708433706845</v>
       </c>
       <c r="E27" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v>4.229454963902296E-2</v>
       </c>
       <c r="F27" s="25">
-        <f>($B27 - 1) / ($F$1 * $B27)</f>
+        <f ca="1">($B27 - 1) / ($F$1 * $B27)</f>
         <v>22.324144523351691</v>
       </c>
       <c r="G27" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>4.4794549639022962E-2</v>
       </c>
       <c r="H27" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v>10.890143320988027</v>
       </c>
       <c r="I27" s="27">
-        <f>($B27 - $F$1*$A27 - 1) / ($F$1 * $F$1 * B27)</f>
+        <f ca="1">($B27 - $F$1*$A27 - 1) / ($F$1 * $F$1 * B27)</f>
         <v>243.11313337774988</v>
       </c>
       <c r="J27" s="34">
@@ -3174,35 +3523,35 @@
         <v>24</v>
       </c>
       <c r="B28" s="14">
-        <f>POWER((1 + $F$1), $A28)</f>
+        <f ca="1">POWER((1 + $F$1), $A28)</f>
         <v>1.0617570442619777</v>
       </c>
       <c r="C28" s="14">
-        <f>POWER((1 + $F$1), -$A28)</f>
+        <f ca="1">POWER((1 + $F$1), -$A28)</f>
         <v>0.94183505106396093</v>
       </c>
       <c r="D28" s="16">
-        <f>($B28 - 1) / $F$1</f>
+        <f ca="1">($B28 - 1) / $F$1</f>
         <v>24.70281770479108</v>
       </c>
       <c r="E28" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v>4.0481211979556946E-2</v>
       </c>
       <c r="F28" s="16">
-        <f>($B28 - 1) / ($F$1 * $B28)</f>
+        <f ca="1">($B28 - 1) / ($F$1 * $B28)</f>
         <v>23.265979574415624</v>
       </c>
       <c r="G28" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>4.2981211979556941E-2</v>
       </c>
       <c r="H28" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v>11.380364996253009</v>
       </c>
       <c r="I28" s="18">
-        <f>($B28 - $F$1*$A28 - 1) / ($F$1 * $F$1 * B28)</f>
+        <f ca="1">($B28 - $F$1*$A28 - 1) / ($F$1 * $F$1 * B28)</f>
         <v>264.77533955221708</v>
       </c>
       <c r="J28" s="34">
@@ -3215,35 +3564,35 @@
         <v>25</v>
       </c>
       <c r="B29" s="24">
-        <f>POWER((1 + $F$1), $A29)</f>
+        <f ca="1">POWER((1 + $F$1), $A29)</f>
         <v>1.0644114368726327</v>
       </c>
       <c r="C29" s="24">
-        <f>POWER((1 + $F$1), -$A29)</f>
+        <f ca="1">POWER((1 + $F$1), -$A29)</f>
         <v>0.93948633522589609</v>
       </c>
       <c r="D29" s="26">
-        <f>($B29 - 1) / $F$1</f>
+        <f ca="1">($B29 - 1) / $F$1</f>
         <v>25.764574749053093</v>
       </c>
       <c r="E29" s="26">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v>3.8812982932573042E-2</v>
       </c>
       <c r="F29" s="26">
-        <f>($B29 - 1) / ($F$1 * $B29)</f>
+        <f ca="1">($B29 - 1) / ($F$1 * $B29)</f>
         <v>24.205465909641553</v>
       </c>
       <c r="G29" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>4.1312982932573038E-2</v>
       </c>
       <c r="H29" s="28">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v>11.870170674269604</v>
       </c>
       <c r="I29" s="28">
-        <f>($B29 - $F$1*$A29 - 1) / ($F$1 * $F$1 * B29)</f>
+        <f ca="1">($B29 - $F$1*$A29 - 1) / ($F$1 * $F$1 * B29)</f>
         <v>287.32301159765979</v>
       </c>
       <c r="J29" s="35">
@@ -3256,35 +3605,35 @@
         <v>26</v>
       </c>
       <c r="B30" s="14">
-        <f>POWER((1 + $F$1), $A30)</f>
+        <f ca="1">POWER((1 + $F$1), $A30)</f>
         <v>1.0670724654648143</v>
       </c>
       <c r="C30" s="14">
-        <f>POWER((1 + $F$1), -$A30)</f>
+        <f ca="1">POWER((1 + $F$1), -$A30)</f>
         <v>0.93714347653455976</v>
       </c>
       <c r="D30" s="16">
-        <f>($B30 - 1) / $F$1</f>
+        <f ca="1">($B30 - 1) / $F$1</f>
         <v>26.828986185925707</v>
       </c>
       <c r="E30" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v>3.7273119195409356E-2</v>
       </c>
       <c r="F30" s="16">
-        <f>($B30 - 1) / ($F$1 * $B30)</f>
+        <f ca="1">($B30 - 1) / ($F$1 * $B30)</f>
         <v>25.142609386176098</v>
       </c>
       <c r="G30" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>3.9773119195409358E-2</v>
       </c>
       <c r="H30" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v>12.359560367742986</v>
       </c>
       <c r="I30" s="18">
-        <f>($B30 - $F$1*$A30 - 1) / ($F$1 * $F$1 * B30)</f>
+        <f ca="1">($B30 - $F$1*$A30 - 1) / ($F$1 * $F$1 * B30)</f>
         <v>310.75159851102489</v>
       </c>
       <c r="J30" s="34">
@@ -3297,35 +3646,35 @@
         <v>27</v>
       </c>
       <c r="B31" s="23">
-        <f>POWER((1 + $F$1), $A31)</f>
+        <f ca="1">POWER((1 + $F$1), $A31)</f>
         <v>1.0697401466284762</v>
       </c>
       <c r="C31" s="23">
-        <f>POWER((1 + $F$1), -$A31)</f>
+        <f ca="1">POWER((1 + $F$1), -$A31)</f>
         <v>0.93480646038360093</v>
       </c>
       <c r="D31" s="25">
-        <f>($B31 - 1) / $F$1</f>
+        <f ca="1">($B31 - 1) / $F$1</f>
         <v>27.896058651390465</v>
       </c>
       <c r="E31" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v>3.5847357954639066E-2</v>
       </c>
       <c r="F31" s="25">
-        <f>($B31 - 1) / ($F$1 * $B31)</f>
+        <f ca="1">($B31 - 1) / ($F$1 * $B31)</f>
         <v>26.077415846559649</v>
       </c>
       <c r="G31" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>3.8347357954639068E-2</v>
       </c>
       <c r="H31" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v>12.848534089897395</v>
       </c>
       <c r="I31" s="27">
-        <f>($B31 - $F$1*$A31 - 1) / ($F$1 * $F$1 * B31)</f>
+        <f ca="1">($B31 - $F$1*$A31 - 1) / ($F$1 * $F$1 * B31)</f>
         <v>335.0565664809522</v>
       </c>
       <c r="J31" s="34">
@@ -3338,35 +3687,35 @@
         <v>28</v>
       </c>
       <c r="B32" s="14">
-        <f>POWER((1 + $F$1), $A32)</f>
+        <f ca="1">POWER((1 + $F$1), $A32)</f>
         <v>1.0724144969950473</v>
       </c>
       <c r="C32" s="14">
-        <f>POWER((1 + $F$1), -$A32)</f>
+        <f ca="1">POWER((1 + $F$1), -$A32)</f>
         <v>0.93247527220309323</v>
       </c>
       <c r="D32" s="16">
-        <f>($B32 - 1) / $F$1</f>
+        <f ca="1">($B32 - 1) / $F$1</f>
         <v>28.965798798018927</v>
       </c>
       <c r="E32" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v>3.452347394156427E-2</v>
       </c>
       <c r="F32" s="16">
-        <f>($B32 - 1) / ($F$1 * $B32)</f>
+        <f ca="1">($B32 - 1) / ($F$1 * $B32)</f>
         <v>27.009891118762727</v>
       </c>
       <c r="G32" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>3.7023473941564265E-2</v>
       </c>
       <c r="H32" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v>13.33709185447986</v>
       </c>
       <c r="I32" s="18">
-        <f>($B32 - $F$1*$A32 - 1) / ($F$1 * $F$1 * B32)</f>
+        <f ca="1">($B32 - $F$1*$A32 - 1) / ($F$1 * $F$1 * B32)</f>
         <v>360.23339883043832</v>
       </c>
       <c r="J32" s="34">
@@ -3379,35 +3728,35 @@
         <v>29</v>
       </c>
       <c r="B33" s="23">
-        <f>POWER((1 + $F$1), $A33)</f>
+        <f ca="1">POWER((1 + $F$1), $A33)</f>
         <v>1.0750955332375352</v>
       </c>
       <c r="C33" s="23">
-        <f>POWER((1 + $F$1), -$A33)</f>
+        <f ca="1">POWER((1 + $F$1), -$A33)</f>
         <v>0.93014989745944443</v>
       </c>
       <c r="D33" s="25">
-        <f>($B33 - 1) / $F$1</f>
+        <f ca="1">($B33 - 1) / $F$1</f>
         <v>30.03821329501406</v>
       </c>
       <c r="E33" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v>3.3290928131400763E-2</v>
       </c>
       <c r="F33" s="25">
-        <f>($B33 - 1) / ($F$1 * $B33)</f>
+        <f ca="1">($B33 - 1) / ($F$1 * $B33)</f>
         <v>27.940041016222246</v>
       </c>
       <c r="G33" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>3.5790928131400765E-2</v>
       </c>
       <c r="H33" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v>13.825233675751095</v>
       </c>
       <c r="I33" s="27">
-        <f>($B33 - $F$1*$A33 - 1) / ($F$1 * $F$1 * B33)</f>
+        <f ca="1">($B33 - $F$1*$A33 - 1) / ($F$1 * $F$1 * B33)</f>
         <v>386.27759595934265</v>
       </c>
       <c r="J33" s="34">
@@ -3420,35 +3769,35 @@
         <v>30</v>
       </c>
       <c r="B34" s="20">
-        <f>POWER((1 + $F$1), $A34)</f>
+        <f ca="1">POWER((1 + $F$1), $A34)</f>
         <v>1.0777832720706286</v>
       </c>
       <c r="C34" s="20">
-        <f>POWER((1 + $F$1), -$A34)</f>
+        <f ca="1">POWER((1 + $F$1), -$A34)</f>
         <v>0.92783032165530643</v>
       </c>
       <c r="D34" s="21">
-        <f>($B34 - 1) / $F$1</f>
+        <f ca="1">($B34 - 1) / $F$1</f>
         <v>31.113308828251451</v>
       </c>
       <c r="E34" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v>3.2140586702626171E-2</v>
       </c>
       <c r="F34" s="21">
-        <f>($B34 - 1) / ($F$1 * $B34)</f>
+        <f ca="1">($B34 - 1) / ($F$1 * $B34)</f>
         <v>28.867871337877432</v>
       </c>
       <c r="G34" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>3.4640586702626167E-2</v>
       </c>
       <c r="H34" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v>14.312959568486193</v>
       </c>
       <c r="I34" s="22">
-        <f>($B34 - $F$1*$A34 - 1) / ($F$1 * $F$1 * B34)</f>
+        <f ca="1">($B34 - $F$1*$A34 - 1) / ($F$1 * $F$1 * B34)</f>
         <v>413.1846752873011</v>
       </c>
       <c r="J34" s="35">
@@ -3461,35 +3810,35 @@
         <v>31</v>
       </c>
       <c r="B35" s="23">
-        <f>POWER((1 + $F$1), $A35)</f>
+        <f ca="1">POWER((1 + $F$1), $A35)</f>
         <v>1.0804777302508051</v>
       </c>
       <c r="C35" s="23">
-        <f>POWER((1 + $F$1), -$A35)</f>
+        <f ca="1">POWER((1 + $F$1), -$A35)</f>
         <v>0.92551653032948278</v>
       </c>
       <c r="D35" s="25">
-        <f>($B35 - 1) / $F$1</f>
+        <f ca="1">($B35 - 1) / $F$1</f>
         <v>32.191092100322024</v>
       </c>
       <c r="E35" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v>3.1064494391291449E-2</v>
       </c>
       <c r="F35" s="25">
-        <f>($B35 - 1) / ($F$1 * $B35)</f>
+        <f ca="1">($B35 - 1) / ($F$1 * $B35)</f>
         <v>29.793387868206864</v>
       </c>
       <c r="G35" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>3.3564494391291451E-2</v>
       </c>
       <c r="H35" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v>14.800269547986554</v>
       </c>
       <c r="I35" s="27">
-        <f>($B35 - $F$1*$A35 - 1) / ($F$1 * $F$1 * B35)</f>
+        <f ca="1">($B35 - $F$1*$A35 - 1) / ($F$1 * $F$1 * B35)</f>
         <v>440.95017119717409</v>
       </c>
       <c r="J35" s="34">
@@ -3502,35 +3851,35 @@
         <v>32</v>
       </c>
       <c r="B36" s="14">
-        <f>POWER((1 + $F$1), $A36)</f>
+        <f ca="1">POWER((1 + $F$1), $A36)</f>
         <v>1.0831789245764323</v>
       </c>
       <c r="C36" s="14">
-        <f>POWER((1 + $F$1), -$A36)</f>
+        <f ca="1">POWER((1 + $F$1), -$A36)</f>
         <v>0.9232085090568406</v>
       </c>
       <c r="D36" s="16">
-        <f>($B36 - 1) / $F$1</f>
+        <f ca="1">($B36 - 1) / $F$1</f>
         <v>33.271569830572908</v>
       </c>
       <c r="E36" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v>3.0055690341401028E-2</v>
       </c>
       <c r="F36" s="16">
-        <f>($B36 - 1) / ($F$1 * $B36)</f>
+        <f ca="1">($B36 - 1) / ($F$1 * $B36)</f>
         <v>30.716596377263773</v>
       </c>
       <c r="G36" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>3.2555690341401024E-2</v>
       </c>
       <c r="H36" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v>15.287163630066532</v>
       </c>
       <c r="I36" s="18">
-        <f>($B36 - $F$1*$A36 - 1) / ($F$1 * $F$1 * B36)</f>
+        <f ca="1">($B36 - $F$1*$A36 - 1) / ($F$1 * $F$1 * B36)</f>
         <v>469.56963497794021</v>
       </c>
       <c r="J36" s="34">
@@ -3543,35 +3892,35 @@
         <v>33</v>
       </c>
       <c r="B37" s="23">
-        <f>POWER((1 + $F$1), $A37)</f>
+        <f ca="1">POWER((1 + $F$1), $A37)</f>
         <v>1.0858868718878734</v>
       </c>
       <c r="C37" s="23">
-        <f>POWER((1 + $F$1), -$A37)</f>
+        <f ca="1">POWER((1 + $F$1), -$A37)</f>
         <v>0.92090624344822003</v>
       </c>
       <c r="D37" s="25">
-        <f>($B37 - 1) / $F$1</f>
+        <f ca="1">($B37 - 1) / $F$1</f>
         <v>34.354748755149345</v>
       </c>
       <c r="E37" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v>2.9108057437041004E-2</v>
       </c>
       <c r="F37" s="25">
-        <f>($B37 - 1) / ($F$1 * $B37)</f>
+        <f ca="1">($B37 - 1) / ($F$1 * $B37)</f>
         <v>31.637502620711995</v>
       </c>
       <c r="G37" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>3.1608057437041003E-2</v>
       </c>
       <c r="H37" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v>15.773641831058685</v>
       </c>
       <c r="I37" s="27">
-        <f>($B37 - $F$1*$A37 - 1) / ($F$1 * $F$1 * B37)</f>
+        <f ca="1">($B37 - $F$1*$A37 - 1) / ($F$1 * $F$1 * B37)</f>
         <v>499.0386347682915</v>
       </c>
       <c r="J37" s="34">
@@ -3584,35 +3933,35 @@
         <v>34</v>
       </c>
       <c r="B38" s="14">
-        <f>POWER((1 + $F$1), $A38)</f>
+        <f ca="1">POWER((1 + $F$1), $A38)</f>
         <v>1.0886015890675929</v>
       </c>
       <c r="C38" s="14">
-        <f>POWER((1 + $F$1), -$A38)</f>
+        <f ca="1">POWER((1 + $F$1), -$A38)</f>
         <v>0.91860971915034428</v>
       </c>
       <c r="D38" s="16">
-        <f>($B38 - 1) / $F$1</f>
+        <f ca="1">($B38 - 1) / $F$1</f>
         <v>35.440635627037139</v>
       </c>
       <c r="E38" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v>2.8216198222954972E-2</v>
       </c>
       <c r="F38" s="16">
-        <f>($B38 - 1) / ($F$1 * $B38)</f>
+        <f ca="1">($B38 - 1) / ($F$1 * $B38)</f>
         <v>32.556112339862274</v>
       </c>
       <c r="G38" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>3.0716198222954971E-2</v>
       </c>
       <c r="H38" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v>16.259704167812579</v>
       </c>
       <c r="I38" s="18">
-        <f>($B38 - $F$1*$A38 - 1) / ($F$1 * $F$1 * B38)</f>
+        <f ca="1">($B38 - $F$1*$A38 - 1) / ($F$1 * $F$1 * B38)</f>
         <v>529.35275550023312</v>
       </c>
       <c r="J38" s="34">
@@ -3625,35 +3974,35 @@
         <v>35</v>
       </c>
       <c r="B39" s="24">
-        <f>POWER((1 + $F$1), $A39)</f>
+        <f ca="1">POWER((1 + $F$1), $A39)</f>
         <v>1.0913230930402618</v>
       </c>
       <c r="C39" s="24">
-        <f>POWER((1 + $F$1), -$A39)</f>
+        <f ca="1">POWER((1 + $F$1), -$A39)</f>
         <v>0.91631892184573005</v>
       </c>
       <c r="D39" s="26">
-        <f>($B39 - 1) / $F$1</f>
+        <f ca="1">($B39 - 1) / $F$1</f>
         <v>36.529237216104704</v>
       </c>
       <c r="E39" s="26">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v>2.7375332095878762E-2</v>
       </c>
       <c r="F39" s="26">
-        <f>($B39 - 1) / ($F$1 * $B39)</f>
+        <f ca="1">($B39 - 1) / ($F$1 * $B39)</f>
         <v>33.472431261707982</v>
       </c>
       <c r="G39" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>2.9875332095878757E-2</v>
       </c>
       <c r="H39" s="28">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v>16.745350657697745</v>
       </c>
       <c r="I39" s="28">
-        <f>($B39 - $F$1*$A39 - 1) / ($F$1 * $F$1 * B39)</f>
+        <f ca="1">($B39 - $F$1*$A39 - 1) / ($F$1 * $F$1 * B39)</f>
         <v>560.50759884298429</v>
       </c>
       <c r="J39" s="35">
@@ -3666,35 +4015,35 @@
         <v>36</v>
       </c>
       <c r="B40" s="14">
-        <f>POWER((1 + $F$1), $A40)</f>
+        <f ca="1">POWER((1 + $F$1), $A40)</f>
         <v>1.0940514007728626</v>
       </c>
       <c r="C40" s="14">
-        <f>POWER((1 + $F$1), -$A40)</f>
+        <f ca="1">POWER((1 + $F$1), -$A40)</f>
         <v>0.91403383725259846</v>
       </c>
       <c r="D40" s="16">
-        <f>($B40 - 1) / $F$1</f>
+        <f ca="1">($B40 - 1) / $F$1</f>
         <v>37.62056030914502</v>
       </c>
       <c r="E40" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v>2.6581209630652799E-2</v>
       </c>
       <c r="F40" s="16">
-        <f>($B40 - 1) / ($F$1 * $B40)</f>
+        <f ca="1">($B40 - 1) / ($F$1 * $B40)</f>
         <v>34.386465098960628</v>
       </c>
       <c r="G40" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>2.9081209630652794E-2</v>
       </c>
       <c r="H40" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v>17.230581318599409</v>
       </c>
       <c r="I40" s="18">
-        <f>($B40 - $F$1*$A40 - 1) / ($F$1 * $F$1 * B40)</f>
+        <f ca="1">($B40 - $F$1*$A40 - 1) / ($F$1 * $F$1 * B40)</f>
         <v>592.49878314682155</v>
       </c>
       <c r="J40" s="34">
@@ -3707,35 +4056,35 @@
         <v>40</v>
       </c>
       <c r="B41" s="23">
-        <f>POWER((1 + $F$1), $A41)</f>
+        <f ca="1">POWER((1 + $F$1), $A41)</f>
         <v>1.1050330101290688</v>
       </c>
       <c r="C41" s="23">
-        <f>POWER((1 + $F$1), -$A41)</f>
+        <f ca="1">POWER((1 + $F$1), -$A41)</f>
         <v>0.90495034160400245</v>
       </c>
       <c r="D41" s="25">
-        <f>($B41 - 1) / $F$1</f>
+        <f ca="1">($B41 - 1) / $F$1</f>
         <v>42.01320405162754</v>
       </c>
       <c r="E41" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v>2.3802040871987749E-2</v>
       </c>
       <c r="F41" s="25">
-        <f>($B41 - 1) / ($F$1 * $B41)</f>
+        <f ca="1">($B41 - 1) / ($F$1 * $B41)</f>
         <v>38.019863358399007</v>
       </c>
       <c r="G41" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>2.6302040871987748E-2</v>
       </c>
       <c r="H41" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v>19.167346048195675</v>
       </c>
       <c r="I41" s="27">
-        <f>($B41 - $F$1*$A41 - 1) / ($F$1 * $F$1 * B41)</f>
+        <f ca="1">($B41 - $F$1*$A41 - 1) / ($F$1 * $F$1 * B41)</f>
         <v>728.73987769554867</v>
       </c>
       <c r="J41" s="34">
@@ -3748,35 +4097,35 @@
         <v>48</v>
       </c>
       <c r="B42" s="14">
-        <f>POWER((1 + $F$1), $A42)</f>
+        <f ca="1">POWER((1 + $F$1), $A42)</f>
         <v>1.1273280210399317</v>
       </c>
       <c r="C42" s="14">
-        <f>POWER((1 + $F$1), -$A42)</f>
+        <f ca="1">POWER((1 + $F$1), -$A42)</f>
         <v>0.88705326341265356</v>
       </c>
       <c r="D42" s="16">
-        <f>($B42 - 1) / $F$1</f>
+        <f ca="1">($B42 - 1) / $F$1</f>
         <v>50.931208415972669</v>
       </c>
       <c r="E42" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v>1.9634326989311869E-2</v>
       </c>
       <c r="F42" s="16">
-        <f>($B42 - 1) / ($F$1 * $B42)</f>
+        <f ca="1">($B42 - 1) / ($F$1 * $B42)</f>
         <v>45.178694634938566</v>
       </c>
       <c r="G42" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>2.2134326989311868E-2</v>
       </c>
       <c r="H42" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v>23.020921805212495</v>
       </c>
       <c r="I42" s="18">
-        <f>($B42 - $F$1*$A42 - 1) / ($F$1 * $F$1 * B42)</f>
+        <f ca="1">($B42 - $F$1*$A42 - 1) / ($F$1 * $F$1 * B42)</f>
         <v>1040.0551964524941</v>
       </c>
       <c r="J42" s="34">
@@ -3789,35 +4138,35 @@
         <v>50</v>
       </c>
       <c r="B43" s="23">
-        <f>POWER((1 + $F$1), $A43)</f>
+        <f ca="1">POWER((1 + $F$1), $A43)</f>
         <v>1.1329717069452627</v>
       </c>
       <c r="C43" s="23">
-        <f>POWER((1 + $F$1), -$A43)</f>
+        <f ca="1">POWER((1 + $F$1), -$A43)</f>
         <v>0.88263457407618473</v>
       </c>
       <c r="D43" s="25">
-        <f>($B43 - 1) / $F$1</f>
+        <f ca="1">($B43 - 1) / $F$1</f>
         <v>53.18868277810509</v>
       </c>
       <c r="E43" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v>1.8800992011248793E-2</v>
       </c>
       <c r="F43" s="25">
-        <f>($B43 - 1) / ($F$1 * $B43)</f>
+        <f ca="1">($B43 - 1) / ($F$1 * $B43)</f>
         <v>46.946170369526094</v>
       </c>
       <c r="G43" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>2.1300992011248791E-2</v>
       </c>
       <c r="H43" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v>23.980159775024159</v>
       </c>
       <c r="I43" s="27">
-        <f>($B43 - $F$1*$A43 - 1) / ($F$1 * $F$1 * B43)</f>
+        <f ca="1">($B43 - $F$1*$A43 - 1) / ($F$1 * $F$1 * B43)</f>
         <v>1125.7766662867407</v>
       </c>
       <c r="J43" s="34">
@@ -3830,35 +4179,35 @@
         <v>60</v>
       </c>
       <c r="B44" s="20">
-        <f>POWER((1 + $F$1), $A44)</f>
+        <f ca="1">POWER((1 + $F$1), $A44)</f>
         <v>1.1616167815552709</v>
       </c>
       <c r="C44" s="20">
-        <f>POWER((1 + $F$1), -$A44)</f>
+        <f ca="1">POWER((1 + $F$1), -$A44)</f>
         <v>0.86086910578298925</v>
       </c>
       <c r="D44" s="21">
-        <f>($B44 - 1) / $F$1</f>
+        <f ca="1">($B44 - 1) / $F$1</f>
         <v>64.646712622108367</v>
       </c>
       <c r="E44" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v>1.5468690664063442E-2</v>
       </c>
       <c r="F44" s="21">
-        <f>($B44 - 1) / ($F$1 * $B44)</f>
+        <f ca="1">($B44 - 1) / ($F$1 * $B44)</f>
         <v>55.652357686804315</v>
       </c>
       <c r="G44" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>1.7968690664063442E-2</v>
       </c>
       <c r="H44" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v>28.751424062477625</v>
       </c>
       <c r="I44" s="22">
-        <f>($B44 - $F$1*$A44 - 1) / ($F$1 * $F$1 * B44)</f>
+        <f ca="1">($B44 - $F$1*$A44 - 1) / ($F$1 * $F$1 * B44)</f>
         <v>1600.0845359299972</v>
       </c>
       <c r="J44" s="35">
@@ -3871,35 +4220,35 @@
         <v>72</v>
       </c>
       <c r="B45" s="23">
-        <f>POWER((1 + $F$1), $A45)</f>
+        <f ca="1">POWER((1 + $F$1), $A45)</f>
         <v>1.1969484675330624</v>
       </c>
       <c r="C45" s="23">
-        <f>POWER((1 + $F$1), -$A45)</f>
+        <f ca="1">POWER((1 + $F$1), -$A45)</f>
         <v>0.8354578556427098</v>
       </c>
       <c r="D45" s="25">
-        <f>($B45 - 1) / $F$1</f>
+        <f ca="1">($B45 - 1) / $F$1</f>
         <v>78.779387013224948</v>
       </c>
       <c r="E45" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v>1.2693675819438996E-2</v>
       </c>
       <c r="F45" s="25">
-        <f>($B45 - 1) / ($F$1 * $B45)</f>
+        <f ca="1">($B45 - 1) / ($F$1 * $B45)</f>
         <v>65.816857742916071</v>
       </c>
       <c r="G45" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>1.5193675819438994E-2</v>
       </c>
       <c r="H45" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v>34.422136400157072</v>
       </c>
       <c r="I45" s="27">
-        <f>($B45 - $F$1*$A45 - 1) / ($F$1 * $F$1 * B45)</f>
+        <f ca="1">($B45 - $F$1*$A45 - 1) / ($F$1 * $F$1 * B45)</f>
         <v>2265.5568546563909</v>
       </c>
       <c r="J45" s="34">
@@ -3912,35 +4261,35 @@
         <v>80</v>
       </c>
       <c r="B46" s="14">
-        <f>POWER((1 + $F$1), $A46)</f>
+        <f ca="1">POWER((1 + $F$1), $A46)</f>
         <v>1.2210979534749107</v>
       </c>
       <c r="C46" s="14">
-        <f>POWER((1 + $F$1), -$A46)</f>
+        <f ca="1">POWER((1 + $F$1), -$A46)</f>
         <v>0.81893512076920083</v>
       </c>
       <c r="D46" s="16">
-        <f>($B46 - 1) / $F$1</f>
+        <f ca="1">($B46 - 1) / $F$1</f>
         <v>88.439181389964276</v>
       </c>
       <c r="E46" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v>1.1307205520035219E-2</v>
       </c>
       <c r="F46" s="16">
-        <f>($B46 - 1) / ($F$1 * $B46)</f>
+        <f ca="1">($B46 - 1) / ($F$1 * $B46)</f>
         <v>72.425951692319657</v>
       </c>
       <c r="G46" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>1.3807205520035217E-2</v>
       </c>
       <c r="H46" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v>38.169423358873082</v>
       </c>
       <c r="I46" s="18">
-        <f>($B46 - $F$1*$A46 - 1) / ($F$1 * $F$1 * B46)</f>
+        <f ca="1">($B46 - $F$1*$A46 - 1) / ($F$1 * $F$1 * B46)</f>
         <v>2764.4568123134395</v>
       </c>
       <c r="J46" s="34">
@@ -3953,35 +4302,35 @@
         <v>84</v>
       </c>
       <c r="B47" s="23">
-        <f>POWER((1 + $F$1), $A47)</f>
+        <f ca="1">POWER((1 + $F$1), $A47)</f>
         <v>1.2333548005492361</v>
       </c>
       <c r="C47" s="23">
-        <f>POWER((1 + $F$1), -$A47)</f>
+        <f ca="1">POWER((1 + $F$1), -$A47)</f>
         <v>0.81079669820450795</v>
       </c>
       <c r="D47" s="25">
-        <f>($B47 - 1) / $F$1</f>
+        <f ca="1">($B47 - 1) / $F$1</f>
         <v>93.34192021969443</v>
       </c>
       <c r="E47" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v>1.0713300065461989E-2</v>
       </c>
       <c r="F47" s="25">
-        <f>($B47 - 1) / ($F$1 * $B47)</f>
+        <f ca="1">($B47 - 1) / ($F$1 * $B47)</f>
         <v>75.681320718196829</v>
       </c>
       <c r="G47" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>1.3213300065461989E-2</v>
       </c>
       <c r="H47" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v>40.033117800477264</v>
       </c>
       <c r="I47" s="27">
-        <f>($B47 - $F$1*$A47 - 1) / ($F$1 * $F$1 * B47)</f>
+        <f ca="1">($B47 - $F$1*$A47 - 1) / ($F$1 * $F$1 * B47)</f>
         <v>3029.7592276072742</v>
       </c>
       <c r="J47" s="34">
@@ -3994,35 +4343,35 @@
         <v>90</v>
       </c>
       <c r="B48" s="14">
-        <f>POWER((1 + $F$1), $A48)</f>
+        <f ca="1">POWER((1 + $F$1), $A48)</f>
         <v>1.2519711357167929</v>
       </c>
       <c r="C48" s="14">
-        <f>POWER((1 + $F$1), -$A48)</f>
+        <f ca="1">POWER((1 + $F$1), -$A48)</f>
         <v>0.79874045932174664</v>
       </c>
       <c r="D48" s="16">
-        <f>($B48 - 1) / $F$1</f>
+        <f ca="1">($B48 - 1) / $F$1</f>
         <v>100.78845428671714</v>
       </c>
       <c r="E48" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v>9.9217713683281434E-3</v>
       </c>
       <c r="F48" s="16">
-        <f>($B48 - 1) / ($F$1 * $B48)</f>
+        <f ca="1">($B48 - 1) / ($F$1 * $B48)</f>
         <v>80.503816271301318</v>
       </c>
       <c r="G48" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>1.2421771368328144E-2</v>
       </c>
       <c r="H48" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v>42.816230740186732</v>
       </c>
       <c r="I48" s="18">
-        <f>($B48 - $F$1*$A48 - 1) / ($F$1 * $F$1 * B48)</f>
+        <f ca="1">($B48 - $F$1*$A48 - 1) / ($F$1 * $F$1 * B48)</f>
         <v>3446.8699729376362</v>
       </c>
       <c r="J48" s="34">
@@ -4035,35 +4384,35 @@
         <v>96</v>
       </c>
       <c r="B49" s="24">
-        <f>POWER((1 + $F$1), $A49)</f>
+        <f ca="1">POWER((1 + $F$1), $A49)</f>
         <v>1.2708684670218084</v>
       </c>
       <c r="C49" s="24">
-        <f>POWER((1 + $F$1), -$A49)</f>
+        <f ca="1">POWER((1 + $F$1), -$A49)</f>
         <v>0.78686349213103868</v>
       </c>
       <c r="D49" s="26">
-        <f>($B49 - 1) / $F$1</f>
+        <f ca="1">($B49 - 1) / $F$1</f>
         <v>108.34738680872337</v>
       </c>
       <c r="E49" s="26">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v>9.2295719301970936E-3</v>
       </c>
       <c r="F49" s="26">
-        <f>($B49 - 1) / ($F$1 * $B49)</f>
+        <f ca="1">($B49 - 1) / ($F$1 * $B49)</f>
         <v>85.254603147584504</v>
       </c>
       <c r="G49" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>1.1729571930197094E-2</v>
       </c>
       <c r="H49" s="28">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v>45.584437880431672</v>
       </c>
       <c r="I49" s="28">
-        <f>($B49 - $F$1*$A49 - 1) / ($F$1 * $F$1 * B49)</f>
+        <f ca="1">($B49 - $F$1*$A49 - 1) / ($F$1 * $F$1 * B49)</f>
         <v>3886.2831612019204</v>
       </c>
       <c r="J49" s="35">
@@ -4076,35 +4425,35 @@
         <v>100</v>
       </c>
       <c r="B50" s="14">
-        <f>POWER((1 + $F$1), $A50)</f>
+        <f ca="1">POWER((1 + $F$1), $A50)</f>
         <v>1.2836248887384623</v>
       </c>
       <c r="C50" s="14">
-        <f>POWER((1 + $F$1), -$A50)</f>
+        <f ca="1">POWER((1 + $F$1), -$A50)</f>
         <v>0.77904379135464807</v>
       </c>
       <c r="D50" s="16">
-        <f>($B50 - 1) / $F$1</f>
+        <f ca="1">($B50 - 1) / $F$1</f>
         <v>113.4499554953849</v>
       </c>
       <c r="E50" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v>8.8144591651310045E-3</v>
       </c>
       <c r="F50" s="16">
-        <f>($B50 - 1) / ($F$1 * $B50)</f>
+        <f ca="1">($B50 - 1) / ($F$1 * $B50)</f>
         <v>88.382483458140754</v>
       </c>
       <c r="G50" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>1.1314459165131003E-2</v>
       </c>
       <c r="H50" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v>47.42163339475983</v>
       </c>
       <c r="I50" s="18">
-        <f>($B50 - $F$1*$A50 - 1) / ($F$1 * $F$1 * B50)</f>
+        <f ca="1">($B50 - $F$1*$A50 - 1) / ($F$1 * $F$1 * B50)</f>
         <v>4191.2417290703761</v>
       </c>
       <c r="J50" s="34">
@@ -4117,35 +4466,35 @@
         <v>108</v>
       </c>
       <c r="B51" s="23">
-        <f>POWER((1 + $F$1), $A51)</f>
+        <f ca="1">POWER((1 + $F$1), $A51)</f>
         <v>1.309523147557478</v>
       </c>
       <c r="C51" s="23">
-        <f>POWER((1 + $F$1), -$A51)</f>
+        <f ca="1">POWER((1 + $F$1), -$A51)</f>
         <v>0.76363674965593353</v>
       </c>
       <c r="D51" s="25">
-        <f>($B51 - 1) / $F$1</f>
+        <f ca="1">($B51 - 1) / $F$1</f>
         <v>123.8092590229912</v>
       </c>
       <c r="E51" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v>8.0769403507560088E-3</v>
       </c>
       <c r="F51" s="25">
-        <f>($B51 - 1) / ($F$1 * $B51)</f>
+        <f ca="1">($B51 - 1) / ($F$1 * $B51)</f>
         <v>94.545300137626569</v>
       </c>
       <c r="G51" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>1.0576940350756008E-2</v>
       </c>
       <c r="H51" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v>51.076176847340442</v>
       </c>
       <c r="I51" s="27">
-        <f>($B51 - $F$1*$A51 - 1) / ($F$1 * $F$1 * B51)</f>
+        <f ca="1">($B51 - $F$1*$A51 - 1) / ($F$1 * $F$1 * B51)</f>
         <v>4829.0124699142953</v>
       </c>
       <c r="J51" s="34">
@@ -4158,35 +4507,35 @@
         <v>120</v>
       </c>
       <c r="B52" s="14">
-        <f>POWER((1 + $F$1), $A52)</f>
+        <f ca="1">POWER((1 + $F$1), $A52)</f>
         <v>1.3493535471908258</v>
       </c>
       <c r="C52" s="14">
-        <f>POWER((1 + $F$1), -$A52)</f>
+        <f ca="1">POWER((1 + $F$1), -$A52)</f>
         <v>0.74109561729160356</v>
       </c>
       <c r="D52" s="16">
-        <f>($B52 - 1) / $F$1</f>
+        <f ca="1">($B52 - 1) / $F$1</f>
         <v>139.7414188763303</v>
       </c>
       <c r="E52" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v>7.1560744698391078E-3</v>
       </c>
       <c r="F52" s="16">
-        <f>($B52 - 1) / ($F$1 * $B52)</f>
+        <f ca="1">($B52 - 1) / ($F$1 * $B52)</f>
         <v>103.56175308335855</v>
       </c>
       <c r="G52" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>9.6560744698391075E-3</v>
       </c>
       <c r="H52" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v>56.508425447722821</v>
       </c>
       <c r="I52" s="18">
-        <f>($B52 - $F$1*$A52 - 1) / ($F$1 * $F$1 * B52)</f>
+        <f ca="1">($B52 - $F$1*$A52 - 1) / ($F$1 * $F$1 * B52)</f>
         <v>5852.1116033464459</v>
       </c>
       <c r="J52" s="34">
@@ -4199,35 +4548,35 @@
         <v>240</v>
       </c>
       <c r="B53" s="23">
-        <f>POWER((1 + $F$1), $A53)</f>
+        <f ca="1">POWER((1 + $F$1), $A53)</f>
         <v>1.8207549953164652</v>
       </c>
       <c r="C53" s="23">
-        <f>POWER((1 + $F$1), -$A53)</f>
+        <f ca="1">POWER((1 + $F$1), -$A53)</f>
         <v>0.54922271396882261</v>
       </c>
       <c r="D53" s="25">
-        <f>($B53 - 1) / $F$1</f>
+        <f ca="1">($B53 - 1) / $F$1</f>
         <v>328.30199812658611</v>
       </c>
       <c r="E53" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v>3.0459759785391918E-3</v>
       </c>
       <c r="F53" s="25">
-        <f>($B53 - 1) / ($F$1 * $B53)</f>
+        <f ca="1">($B53 - 1) / ($F$1 * $B53)</f>
         <v>180.31091441247096</v>
       </c>
       <c r="G53" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>5.5459759785391914E-3</v>
       </c>
       <c r="H53" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v>107.58630606023752</v>
       </c>
       <c r="I53" s="27">
-        <f>($B53 - $F$1*$A53 - 1) / ($F$1 * $F$1 * B53)</f>
+        <f ca="1">($B53 - $F$1*$A53 - 1) / ($F$1 * $F$1 * B53)</f>
         <v>19398.985223981392</v>
       </c>
       <c r="J53" s="34">
@@ -4240,35 +4589,35 @@
         <v>360</v>
       </c>
       <c r="B54" s="15">
-        <f>POWER((1 + $F$1), $A54)</f>
+        <f ca="1">POWER((1 + $F$1), $A54)</f>
         <v>2.456842211495688</v>
       </c>
       <c r="C54" s="15">
-        <f>POWER((1 + $F$1), -$A54)</f>
+        <f ca="1">POWER((1 + $F$1), -$A54)</f>
         <v>0.40702654623929441</v>
       </c>
       <c r="D54" s="17">
-        <f>($B54 - 1) / $F$1</f>
+        <f ca="1">($B54 - 1) / $F$1</f>
         <v>582.7368845982752</v>
       </c>
       <c r="E54" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v>1.7160403372945511E-3</v>
       </c>
       <c r="F54" s="17">
-        <f>($B54 - 1) / ($F$1 * $B54)</f>
+        <f ca="1">($B54 - 1) / ($F$1 * $B54)</f>
         <v>237.18938150428224</v>
       </c>
       <c r="G54" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>4.2160403372945507E-3</v>
       </c>
       <c r="H54" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v>152.89019142958469</v>
       </c>
       <c r="I54" s="19">
-        <f>($B54 - $F$1*$A54 - 1) / ($F$1 * $F$1 * B54)</f>
+        <f ca="1">($B54 - $F$1*$A54 - 1) / ($F$1 * $F$1 * B54)</f>
         <v>36263.929943254509</v>
       </c>
       <c r="J54" s="36">

--- a/Annexe.xlsx
+++ b/Annexe.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\UdeS_S7_GEN700\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{527D47F5-BFFC-4A07-A9C0-541D1DD16A29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92E52B92-0E66-4B93-9072-FEF96EF32FF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="5655" windowWidth="25440" windowHeight="15270" firstSheet="22" activeTab="31" xr2:uid="{BC273EC7-125C-4121-8820-100AB02E3B4D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{BC273EC7-125C-4121-8820-100AB02E3B4D}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="3" r:id="rId1"/>
@@ -44,7 +44,6 @@
     <sheet name="A28" sheetId="53" r:id="rId29"/>
     <sheet name="A29" sheetId="54" r:id="rId30"/>
     <sheet name="Notes_Ammortissement" sheetId="58" r:id="rId31"/>
-    <sheet name="Notes_Pret" sheetId="60" r:id="rId32"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -815,7 +814,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -900,6 +899,15 @@
     <xf numFmtId="164" fontId="0" fillId="7" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="9" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -915,19 +923,6 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1648,6 +1643,50 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>51289</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>183173</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>558312</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>15546</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{699B749A-A4C4-40A5-849C-979888541FAA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="51289" y="8565173"/>
+          <a:ext cx="7086600" cy="1356373"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1777,55 +1816,6 @@
         <a:xfrm>
           <a:off x="619124" y="4686299"/>
           <a:ext cx="6524625" cy="4249955"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>57151</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>129829</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>552451</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>152702</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{993138AC-90ED-DD04-F348-A411DE1174F6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="57151" y="8892829"/>
-          <a:ext cx="7086600" cy="1356373"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2139,8 +2129,8 @@
   </sheetPr>
   <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2944,11 +2934,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="str">
+      <c r="A1" s="68" t="str">
         <f>"TABLE " &amp; C1</f>
         <v>TABLE A9</v>
       </c>
-      <c r="B1" s="59"/>
+      <c r="B1" s="68"/>
       <c r="C1" s="40" t="s">
         <v>44</v>
       </c>
@@ -2959,28 +2949,28 @@
         <f>VLOOKUP(C1,Summary!A10:'Summary'!D39, 3, FALSE)</f>
         <v>0.03</v>
       </c>
-      <c r="I1" s="60" t="str">
+      <c r="I1" s="69" t="str">
         <f>"p. " &amp; VLOOKUP(C1,Summary!A10:'Summary'!D39, 4, FALSE)</f>
         <v>p. 824</v>
       </c>
-      <c r="J1" s="60"/>
+      <c r="J1" s="69"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="57"/>
-      <c r="D3" s="56" t="s">
+      <c r="C3" s="66"/>
+      <c r="D3" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="56" t="s">
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="57"/>
+      <c r="I3" s="66"/>
       <c r="J3" s="6"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5102,11 +5092,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="str">
+      <c r="A1" s="68" t="str">
         <f>"TABLE " &amp; C1</f>
         <v>TABLE A10</v>
       </c>
-      <c r="B1" s="59"/>
+      <c r="B1" s="68"/>
       <c r="C1" s="40" t="s">
         <v>38</v>
       </c>
@@ -5117,28 +5107,28 @@
         <f>VLOOKUP(C1,Summary!A10:'Summary'!D39, 3, FALSE)</f>
         <v>0.04</v>
       </c>
-      <c r="I1" s="60" t="str">
+      <c r="I1" s="69" t="str">
         <f>"p. " &amp; VLOOKUP(C1,Summary!A10:'Summary'!D39, 4, FALSE)</f>
         <v>p. 825</v>
       </c>
-      <c r="J1" s="60"/>
+      <c r="J1" s="69"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="57"/>
-      <c r="D3" s="56" t="s">
+      <c r="C3" s="66"/>
+      <c r="D3" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="56" t="s">
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="57"/>
+      <c r="I3" s="66"/>
       <c r="J3" s="6"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7219,11 +7209,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="str">
+      <c r="A1" s="68" t="str">
         <f>"TABLE " &amp; C1</f>
         <v>TABLE A11</v>
       </c>
-      <c r="B1" s="59"/>
+      <c r="B1" s="68"/>
       <c r="C1" s="40" t="s">
         <v>45</v>
       </c>
@@ -7234,28 +7224,28 @@
         <f>VLOOKUP(C1,Summary!A10:'Summary'!D39, 3, FALSE)</f>
         <v>0.05</v>
       </c>
-      <c r="I1" s="60" t="str">
+      <c r="I1" s="69" t="str">
         <f>"p. " &amp; VLOOKUP(C1,Summary!A10:'Summary'!D39, 4, FALSE)</f>
         <v>p. 826</v>
       </c>
-      <c r="J1" s="60"/>
+      <c r="J1" s="69"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="57"/>
-      <c r="D3" s="56" t="s">
+      <c r="C3" s="66"/>
+      <c r="D3" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="56" t="s">
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="57"/>
+      <c r="I3" s="66"/>
       <c r="J3" s="6"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9336,11 +9326,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="str">
+      <c r="A1" s="68" t="str">
         <f>"TABLE " &amp; C1</f>
         <v>TABLE A12</v>
       </c>
-      <c r="B1" s="59"/>
+      <c r="B1" s="68"/>
       <c r="C1" s="40" t="s">
         <v>46</v>
       </c>
@@ -9351,28 +9341,28 @@
         <f>VLOOKUP(C1,Summary!A10:'Summary'!D39, 3, FALSE)</f>
         <v>0.06</v>
       </c>
-      <c r="I1" s="60" t="str">
+      <c r="I1" s="69" t="str">
         <f>"p. " &amp; VLOOKUP(C1,Summary!A10:'Summary'!D39, 4, FALSE)</f>
         <v>p. 827</v>
       </c>
-      <c r="J1" s="60"/>
+      <c r="J1" s="69"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="57"/>
-      <c r="D3" s="56" t="s">
+      <c r="C3" s="66"/>
+      <c r="D3" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="56" t="s">
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="57"/>
+      <c r="I3" s="66"/>
       <c r="J3" s="6"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11412,11 +11402,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="str">
+      <c r="A1" s="68" t="str">
         <f>"TABLE " &amp; C1</f>
         <v>TABLE A13</v>
       </c>
-      <c r="B1" s="59"/>
+      <c r="B1" s="68"/>
       <c r="C1" s="40" t="s">
         <v>47</v>
       </c>
@@ -11427,28 +11417,28 @@
         <f>VLOOKUP(C1,Summary!A10:'Summary'!D39, 3, FALSE)</f>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="I1" s="60" t="str">
+      <c r="I1" s="69" t="str">
         <f>"p. " &amp; VLOOKUP(C1,Summary!A10:'Summary'!D39, 4, FALSE)</f>
         <v>p. 828</v>
       </c>
-      <c r="J1" s="60"/>
+      <c r="J1" s="69"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="57"/>
-      <c r="D3" s="56" t="s">
+      <c r="C3" s="66"/>
+      <c r="D3" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="56" t="s">
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="57"/>
+      <c r="I3" s="66"/>
       <c r="J3" s="6"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13488,11 +13478,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="str">
+      <c r="A1" s="68" t="str">
         <f>"TABLE " &amp; C1</f>
         <v>TABLE A14</v>
       </c>
-      <c r="B1" s="59"/>
+      <c r="B1" s="68"/>
       <c r="C1" s="40" t="s">
         <v>48</v>
       </c>
@@ -13503,28 +13493,28 @@
         <f>VLOOKUP(C1,Summary!A10:'Summary'!D39, 3, FALSE)</f>
         <v>0.08</v>
       </c>
-      <c r="I1" s="60" t="str">
+      <c r="I1" s="69" t="str">
         <f>"p. " &amp; VLOOKUP(C1,Summary!A10:'Summary'!D39, 4, FALSE)</f>
         <v>p. 829</v>
       </c>
-      <c r="J1" s="60"/>
+      <c r="J1" s="69"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="57"/>
-      <c r="D3" s="56" t="s">
+      <c r="C3" s="66"/>
+      <c r="D3" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="56" t="s">
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="57"/>
+      <c r="I3" s="66"/>
       <c r="J3" s="6"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15564,11 +15554,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="str">
+      <c r="A1" s="68" t="str">
         <f>"TABLE " &amp; C1</f>
         <v>TABLE A15</v>
       </c>
-      <c r="B1" s="59"/>
+      <c r="B1" s="68"/>
       <c r="C1" s="40" t="s">
         <v>49</v>
       </c>
@@ -15579,28 +15569,28 @@
         <f>VLOOKUP(C1,Summary!A10:'Summary'!D39, 3, FALSE)</f>
         <v>0.09</v>
       </c>
-      <c r="I1" s="60" t="str">
+      <c r="I1" s="69" t="str">
         <f>"p. " &amp; VLOOKUP(C1,Summary!A10:'Summary'!D39, 4, FALSE)</f>
         <v>p. 830</v>
       </c>
-      <c r="J1" s="60"/>
+      <c r="J1" s="69"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="57"/>
-      <c r="D3" s="56" t="s">
+      <c r="C3" s="66"/>
+      <c r="D3" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="56" t="s">
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="57"/>
+      <c r="I3" s="66"/>
       <c r="J3" s="6"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17640,11 +17630,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="str">
+      <c r="A1" s="68" t="str">
         <f>"TABLE " &amp; C1</f>
         <v>TABLE A16</v>
       </c>
-      <c r="B1" s="59"/>
+      <c r="B1" s="68"/>
       <c r="C1" s="40" t="s">
         <v>50</v>
       </c>
@@ -17655,28 +17645,28 @@
         <f>VLOOKUP(C1,Summary!A10:'Summary'!D39, 3, FALSE)</f>
         <v>0.1</v>
       </c>
-      <c r="I1" s="60" t="str">
+      <c r="I1" s="69" t="str">
         <f>"p. " &amp; VLOOKUP(C1,Summary!A10:'Summary'!D39, 4, FALSE)</f>
         <v>p. 831</v>
       </c>
-      <c r="J1" s="60"/>
+      <c r="J1" s="69"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="57"/>
-      <c r="D3" s="56" t="s">
+      <c r="C3" s="66"/>
+      <c r="D3" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="56" t="s">
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="57"/>
+      <c r="I3" s="66"/>
       <c r="J3" s="6"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19716,11 +19706,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="str">
+      <c r="A1" s="68" t="str">
         <f>"TABLE " &amp; C1</f>
         <v>TABLE A17</v>
       </c>
-      <c r="B1" s="59"/>
+      <c r="B1" s="68"/>
       <c r="C1" s="40" t="s">
         <v>51</v>
       </c>
@@ -19731,28 +19721,28 @@
         <f>VLOOKUP(C1,Summary!A10:'Summary'!D39, 3, FALSE)</f>
         <v>0.11</v>
       </c>
-      <c r="I1" s="60" t="str">
+      <c r="I1" s="69" t="str">
         <f>"p. " &amp; VLOOKUP(C1,Summary!A10:'Summary'!D39, 4, FALSE)</f>
         <v>p. 832</v>
       </c>
-      <c r="J1" s="60"/>
+      <c r="J1" s="69"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="57"/>
-      <c r="D3" s="56" t="s">
+      <c r="C3" s="66"/>
+      <c r="D3" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="56" t="s">
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="57"/>
+      <c r="I3" s="66"/>
       <c r="J3" s="6"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -21792,11 +21782,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="str">
+      <c r="A1" s="68" t="str">
         <f>"TABLE " &amp; C1</f>
         <v>TABLE A18</v>
       </c>
-      <c r="B1" s="59"/>
+      <c r="B1" s="68"/>
       <c r="C1" s="40" t="s">
         <v>52</v>
       </c>
@@ -21807,28 +21797,28 @@
         <f>VLOOKUP(C1,Summary!A10:'Summary'!D39, 3, FALSE)</f>
         <v>0.12</v>
       </c>
-      <c r="I1" s="60" t="str">
+      <c r="I1" s="69" t="str">
         <f>"p. " &amp; VLOOKUP(C1,Summary!A10:'Summary'!D39, 4, FALSE)</f>
         <v>p. 833</v>
       </c>
-      <c r="J1" s="60"/>
+      <c r="J1" s="69"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="57"/>
-      <c r="D3" s="56" t="s">
+      <c r="C3" s="66"/>
+      <c r="D3" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="56" t="s">
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="57"/>
+      <c r="I3" s="66"/>
       <c r="J3" s="6"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23868,11 +23858,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="str">
+      <c r="A1" s="68" t="str">
         <f>"TABLE " &amp; C1</f>
         <v>TABLE A1</v>
       </c>
-      <c r="B1" s="59"/>
+      <c r="B1" s="68"/>
       <c r="C1" s="40" t="s">
         <v>33</v>
       </c>
@@ -23883,28 +23873,28 @@
         <f>VLOOKUP(C1,Summary!A10:'Summary'!D39, 3, FALSE)</f>
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="I1" s="60" t="str">
+      <c r="I1" s="69" t="str">
         <f>"p. " &amp; VLOOKUP(C1,Summary!A10:'Summary'!D39, 4, FALSE)</f>
         <v>p. 816</v>
       </c>
-      <c r="J1" s="60"/>
+      <c r="J1" s="69"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="57"/>
-      <c r="D3" s="56" t="s">
+      <c r="C3" s="66"/>
+      <c r="D3" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="56" t="s">
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="57"/>
+      <c r="I3" s="66"/>
       <c r="J3" s="6"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -26026,11 +26016,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="str">
+      <c r="A1" s="68" t="str">
         <f>"TABLE " &amp; C1</f>
         <v>TABLE A19</v>
       </c>
-      <c r="B1" s="59"/>
+      <c r="B1" s="68"/>
       <c r="C1" s="40" t="s">
         <v>53</v>
       </c>
@@ -26041,28 +26031,28 @@
         <f>VLOOKUP(C1,Summary!A10:'Summary'!D39, 3, FALSE)</f>
         <v>0.13</v>
       </c>
-      <c r="I1" s="60" t="str">
+      <c r="I1" s="69" t="str">
         <f>"p. " &amp; VLOOKUP(C1,Summary!A10:'Summary'!D39, 4, FALSE)</f>
         <v>p. 834</v>
       </c>
-      <c r="J1" s="60"/>
+      <c r="J1" s="69"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="57"/>
-      <c r="D3" s="56" t="s">
+      <c r="C3" s="66"/>
+      <c r="D3" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="56" t="s">
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="57"/>
+      <c r="I3" s="66"/>
       <c r="J3" s="6"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -28061,11 +28051,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="str">
+      <c r="A1" s="68" t="str">
         <f>"TABLE " &amp; C1</f>
         <v>TABLE A20</v>
       </c>
-      <c r="B1" s="59"/>
+      <c r="B1" s="68"/>
       <c r="C1" s="40" t="s">
         <v>54</v>
       </c>
@@ -28076,28 +28066,28 @@
         <f>VLOOKUP(C1,Summary!A10:'Summary'!D39, 3, FALSE)</f>
         <v>0.14000000000000001</v>
       </c>
-      <c r="I1" s="60" t="str">
+      <c r="I1" s="69" t="str">
         <f>"p. " &amp; VLOOKUP(C1,Summary!A10:'Summary'!D39, 4, FALSE)</f>
         <v>p. 835</v>
       </c>
-      <c r="J1" s="60"/>
+      <c r="J1" s="69"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="57"/>
-      <c r="D3" s="56" t="s">
+      <c r="C3" s="66"/>
+      <c r="D3" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="56" t="s">
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="57"/>
+      <c r="I3" s="66"/>
       <c r="J3" s="6"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -30096,11 +30086,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="str">
+      <c r="A1" s="68" t="str">
         <f>"TABLE " &amp; C1</f>
         <v>TABLE A21</v>
       </c>
-      <c r="B1" s="59"/>
+      <c r="B1" s="68"/>
       <c r="C1" s="40" t="s">
         <v>55</v>
       </c>
@@ -30111,28 +30101,28 @@
         <f>VLOOKUP(C1,Summary!A10:'Summary'!D39, 3, FALSE)</f>
         <v>0.15</v>
       </c>
-      <c r="I1" s="60" t="str">
+      <c r="I1" s="69" t="str">
         <f>"p. " &amp; VLOOKUP(C1,Summary!A10:'Summary'!D39, 4, FALSE)</f>
         <v>p. 836</v>
       </c>
-      <c r="J1" s="60"/>
+      <c r="J1" s="69"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="57"/>
-      <c r="D3" s="56" t="s">
+      <c r="C3" s="66"/>
+      <c r="D3" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="56" t="s">
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="57"/>
+      <c r="I3" s="66"/>
       <c r="J3" s="6"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -32090,11 +32080,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="str">
+      <c r="A1" s="68" t="str">
         <f>"TABLE " &amp; C1</f>
         <v>TABLE A22</v>
       </c>
-      <c r="B1" s="59"/>
+      <c r="B1" s="68"/>
       <c r="C1" s="40" t="s">
         <v>56</v>
       </c>
@@ -32105,28 +32095,28 @@
         <f>VLOOKUP(C1,Summary!A10:'Summary'!D39, 3, FALSE)</f>
         <v>0.16</v>
       </c>
-      <c r="I1" s="60" t="str">
+      <c r="I1" s="69" t="str">
         <f>"p. " &amp; VLOOKUP(C1,Summary!A10:'Summary'!D39, 4, FALSE)</f>
         <v>p. 837</v>
       </c>
-      <c r="J1" s="60"/>
+      <c r="J1" s="69"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="57"/>
-      <c r="D3" s="56" t="s">
+      <c r="C3" s="66"/>
+      <c r="D3" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="56" t="s">
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="57"/>
+      <c r="I3" s="66"/>
       <c r="J3" s="6"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -34043,11 +34033,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="str">
+      <c r="A1" s="68" t="str">
         <f>"TABLE " &amp; C1</f>
         <v>TABLE A23</v>
       </c>
-      <c r="B1" s="59"/>
+      <c r="B1" s="68"/>
       <c r="C1" s="40" t="s">
         <v>57</v>
       </c>
@@ -34058,28 +34048,28 @@
         <f>VLOOKUP(C1,Summary!A10:'Summary'!D39, 3, FALSE)</f>
         <v>0.18</v>
       </c>
-      <c r="I1" s="60" t="str">
+      <c r="I1" s="69" t="str">
         <f>"p. " &amp; VLOOKUP(C1,Summary!A10:'Summary'!D39, 4, FALSE)</f>
         <v>p. 838</v>
       </c>
-      <c r="J1" s="60"/>
+      <c r="J1" s="69"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="57"/>
-      <c r="D3" s="56" t="s">
+      <c r="C3" s="66"/>
+      <c r="D3" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="56" t="s">
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="57"/>
+      <c r="I3" s="66"/>
       <c r="J3" s="6"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -35914,11 +35904,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="str">
+      <c r="A1" s="68" t="str">
         <f>"TABLE " &amp; C1</f>
         <v>TABLE A24</v>
       </c>
-      <c r="B1" s="59"/>
+      <c r="B1" s="68"/>
       <c r="C1" s="40" t="s">
         <v>58</v>
       </c>
@@ -35929,28 +35919,28 @@
         <f>VLOOKUP(C1,Summary!A10:'Summary'!D39, 3, FALSE)</f>
         <v>0.2</v>
       </c>
-      <c r="I1" s="60" t="str">
+      <c r="I1" s="69" t="str">
         <f>"p. " &amp; VLOOKUP(C1,Summary!A10:'Summary'!D39, 4, FALSE)</f>
         <v>p. 839</v>
       </c>
-      <c r="J1" s="60"/>
+      <c r="J1" s="69"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="57"/>
-      <c r="D3" s="56" t="s">
+      <c r="C3" s="66"/>
+      <c r="D3" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="56" t="s">
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="57"/>
+      <c r="I3" s="66"/>
       <c r="J3" s="6"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -37703,11 +37693,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="str">
+      <c r="A1" s="68" t="str">
         <f>"TABLE " &amp; C1</f>
         <v>TABLE A25</v>
       </c>
-      <c r="B1" s="59"/>
+      <c r="B1" s="68"/>
       <c r="C1" s="40" t="s">
         <v>59</v>
       </c>
@@ -37718,28 +37708,28 @@
         <f>VLOOKUP(C1,Summary!A10:'Summary'!D39, 3, FALSE)</f>
         <v>0.25</v>
       </c>
-      <c r="I1" s="60" t="str">
+      <c r="I1" s="69" t="str">
         <f>"p. " &amp; VLOOKUP(C1,Summary!A10:'Summary'!D39, 4, FALSE)</f>
         <v>p. 840</v>
       </c>
-      <c r="J1" s="60"/>
+      <c r="J1" s="69"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="57"/>
-      <c r="D3" s="56" t="s">
+      <c r="C3" s="66"/>
+      <c r="D3" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="56" t="s">
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="57"/>
+      <c r="I3" s="66"/>
       <c r="J3" s="6"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -39451,11 +39441,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="str">
+      <c r="A1" s="68" t="str">
         <f>"TABLE " &amp; C1</f>
         <v>TABLE A26</v>
       </c>
-      <c r="B1" s="59"/>
+      <c r="B1" s="68"/>
       <c r="C1" s="40" t="s">
         <v>60</v>
       </c>
@@ -39466,28 +39456,28 @@
         <f>VLOOKUP(C1,Summary!A10:'Summary'!D39, 3, FALSE)</f>
         <v>0.3</v>
       </c>
-      <c r="I1" s="60" t="str">
+      <c r="I1" s="69" t="str">
         <f>"p. " &amp; VLOOKUP(C1,Summary!A10:'Summary'!D39, 4, FALSE)</f>
         <v>p. 841</v>
       </c>
-      <c r="J1" s="60"/>
+      <c r="J1" s="69"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="57"/>
-      <c r="D3" s="56" t="s">
+      <c r="C3" s="66"/>
+      <c r="D3" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="56" t="s">
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="57"/>
+      <c r="I3" s="66"/>
       <c r="J3" s="6"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -41158,11 +41148,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="str">
+      <c r="A1" s="68" t="str">
         <f>"TABLE " &amp; C1</f>
         <v>TABLE A27</v>
       </c>
-      <c r="B1" s="59"/>
+      <c r="B1" s="68"/>
       <c r="C1" s="40" t="s">
         <v>61</v>
       </c>
@@ -41173,28 +41163,28 @@
         <f>VLOOKUP(C1,Summary!A10:'Summary'!D39, 3, FALSE)</f>
         <v>0.35</v>
       </c>
-      <c r="I1" s="60" t="str">
+      <c r="I1" s="69" t="str">
         <f>"p. " &amp; VLOOKUP(C1,Summary!A10:'Summary'!D39, 4, FALSE)</f>
         <v>p. 842</v>
       </c>
-      <c r="J1" s="60"/>
+      <c r="J1" s="69"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="57"/>
-      <c r="D3" s="56" t="s">
+      <c r="C3" s="66"/>
+      <c r="D3" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="56" t="s">
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="57"/>
+      <c r="I3" s="66"/>
       <c r="J3" s="6"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -42865,11 +42855,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="str">
+      <c r="A1" s="68" t="str">
         <f>"TABLE " &amp; C1</f>
         <v>TABLE A28</v>
       </c>
-      <c r="B1" s="59"/>
+      <c r="B1" s="68"/>
       <c r="C1" s="40" t="s">
         <v>62</v>
       </c>
@@ -42880,28 +42870,28 @@
         <f>VLOOKUP(C1,Summary!A10:'Summary'!D39, 3, FALSE)</f>
         <v>0.4</v>
       </c>
-      <c r="I1" s="60" t="str">
+      <c r="I1" s="69" t="str">
         <f>"p. " &amp; VLOOKUP(C1,Summary!A10:'Summary'!D39, 4, FALSE)</f>
         <v>p. 843</v>
       </c>
-      <c r="J1" s="60"/>
+      <c r="J1" s="69"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="57"/>
-      <c r="D3" s="56" t="s">
+      <c r="C3" s="66"/>
+      <c r="D3" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="56" t="s">
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="57"/>
+      <c r="I3" s="66"/>
       <c r="J3" s="6"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -44490,11 +44480,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="str">
+      <c r="A1" s="68" t="str">
         <f>"TABLE " &amp; C1</f>
         <v>TABLE A2</v>
       </c>
-      <c r="B1" s="59"/>
+      <c r="B1" s="68"/>
       <c r="C1" s="40" t="s">
         <v>36</v>
       </c>
@@ -44505,28 +44495,28 @@
         <f>VLOOKUP(C1,Summary!A10:'Summary'!D39, 3, FALSE)</f>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="I1" s="60" t="str">
+      <c r="I1" s="69" t="str">
         <f>"p. " &amp; VLOOKUP(C1,Summary!A10:'Summary'!D39, 4, FALSE)</f>
         <v>p. 817</v>
       </c>
-      <c r="J1" s="60"/>
+      <c r="J1" s="69"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="57"/>
-      <c r="D3" s="56" t="s">
+      <c r="C3" s="66"/>
+      <c r="D3" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="56" t="s">
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="57"/>
+      <c r="I3" s="66"/>
       <c r="J3" s="6"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -46648,11 +46638,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="str">
+      <c r="A1" s="68" t="str">
         <f>"TABLE " &amp; C1</f>
         <v>TABLE A29</v>
       </c>
-      <c r="B1" s="59"/>
+      <c r="B1" s="68"/>
       <c r="C1" s="40" t="s">
         <v>37</v>
       </c>
@@ -46663,28 +46653,28 @@
         <f>VLOOKUP(C1,Summary!A10:'Summary'!D39, 3, FALSE)</f>
         <v>0.5</v>
       </c>
-      <c r="I1" s="60" t="str">
+      <c r="I1" s="69" t="str">
         <f>"p. " &amp; VLOOKUP(C1,Summary!A10:'Summary'!D39, 4, FALSE)</f>
         <v>p. 844</v>
       </c>
-      <c r="J1" s="60"/>
+      <c r="J1" s="69"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="57"/>
-      <c r="D3" s="56" t="s">
+      <c r="C3" s="66"/>
+      <c r="D3" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="56" t="s">
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="57"/>
+      <c r="I3" s="66"/>
       <c r="J3" s="6"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -48185,1324 +48175,421 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="61"/>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="63"/>
+      <c r="A1" s="56"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="58"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="64"/>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="66"/>
+      <c r="A2" s="59"/>
+      <c r="J2" s="60"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="64"/>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="66"/>
+      <c r="A3" s="59"/>
+      <c r="J3" s="60"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="64"/>
-      <c r="B4" s="65"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="66"/>
+      <c r="A4" s="59"/>
+      <c r="J4" s="60"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="64"/>
-      <c r="B5" s="65"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="66"/>
+      <c r="A5" s="59"/>
+      <c r="J5" s="60"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="64"/>
-      <c r="B6" s="65"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="65"/>
-      <c r="I6" s="65"/>
-      <c r="J6" s="66"/>
+      <c r="A6" s="59"/>
+      <c r="J6" s="60"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="64"/>
-      <c r="B7" s="65"/>
-      <c r="C7" s="65"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="65"/>
-      <c r="I7" s="65"/>
-      <c r="J7" s="66"/>
+      <c r="A7" s="59"/>
+      <c r="J7" s="60"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="67"/>
-      <c r="B8" s="68"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="68"/>
-      <c r="G8" s="65"/>
-      <c r="H8" s="65"/>
-      <c r="I8" s="65"/>
-      <c r="J8" s="66"/>
+      <c r="A8" s="61"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="J8" s="60"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="67"/>
-      <c r="B9" s="68"/>
-      <c r="C9" s="68"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="68"/>
-      <c r="G9" s="65"/>
-      <c r="H9" s="65"/>
-      <c r="I9" s="65"/>
-      <c r="J9" s="66"/>
+      <c r="A9" s="61"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="J9" s="60"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="67"/>
-      <c r="B10" s="68"/>
-      <c r="C10" s="68"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="68"/>
-      <c r="F10" s="68"/>
-      <c r="G10" s="65"/>
-      <c r="H10" s="65"/>
-      <c r="I10" s="65"/>
-      <c r="J10" s="66"/>
+      <c r="A10" s="61"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="J10" s="60"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="67"/>
-      <c r="B11" s="68"/>
-      <c r="C11" s="69"/>
-      <c r="D11" s="68"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="68"/>
-      <c r="G11" s="65"/>
-      <c r="H11" s="65"/>
-      <c r="I11" s="65"/>
-      <c r="J11" s="66"/>
+      <c r="A11" s="61"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="J11" s="60"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="67"/>
-      <c r="B12" s="68"/>
-      <c r="C12" s="69"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="68"/>
-      <c r="F12" s="68"/>
-      <c r="G12" s="65"/>
-      <c r="H12" s="65"/>
-      <c r="I12" s="65"/>
-      <c r="J12" s="66"/>
+      <c r="A12" s="61"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="J12" s="60"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="67"/>
-      <c r="B13" s="68"/>
-      <c r="C13" s="69"/>
-      <c r="D13" s="68"/>
-      <c r="E13" s="68"/>
-      <c r="F13" s="68"/>
-      <c r="G13" s="65"/>
-      <c r="H13" s="65"/>
-      <c r="I13" s="65"/>
-      <c r="J13" s="66"/>
+      <c r="A13" s="61"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="J13" s="60"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="67"/>
-      <c r="B14" s="68"/>
-      <c r="C14" s="70"/>
-      <c r="D14" s="68"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="68"/>
-      <c r="G14" s="65"/>
-      <c r="H14" s="65"/>
-      <c r="I14" s="65"/>
-      <c r="J14" s="66"/>
+      <c r="A14" s="61"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="J14" s="60"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="67"/>
-      <c r="B15" s="68"/>
-      <c r="C15" s="69"/>
-      <c r="D15" s="68"/>
-      <c r="E15" s="68"/>
-      <c r="F15" s="68"/>
-      <c r="G15" s="65"/>
-      <c r="H15" s="65"/>
-      <c r="I15" s="65"/>
-      <c r="J15" s="66"/>
+      <c r="A15" s="61"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="J15" s="60"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="67"/>
-      <c r="B16" s="68"/>
-      <c r="C16" s="69"/>
-      <c r="D16" s="68"/>
-      <c r="E16" s="68"/>
-      <c r="F16" s="68"/>
-      <c r="G16" s="65"/>
-      <c r="H16" s="65"/>
-      <c r="I16" s="65"/>
-      <c r="J16" s="66"/>
+      <c r="A16" s="61"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="J16" s="60"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="67"/>
-      <c r="B17" s="68"/>
-      <c r="C17" s="69"/>
-      <c r="D17" s="68"/>
-      <c r="E17" s="68"/>
-      <c r="F17" s="68"/>
-      <c r="G17" s="65"/>
-      <c r="H17" s="65"/>
-      <c r="I17" s="65"/>
-      <c r="J17" s="66"/>
+      <c r="A17" s="61"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="J17" s="60"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="67"/>
-      <c r="B18" s="68"/>
-      <c r="C18" s="70"/>
-      <c r="D18" s="68"/>
-      <c r="E18" s="68"/>
-      <c r="F18" s="68"/>
-      <c r="G18" s="65"/>
-      <c r="H18" s="65"/>
-      <c r="I18" s="65"/>
-      <c r="J18" s="66"/>
+      <c r="A18" s="61"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="J18" s="60"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="67"/>
-      <c r="B19" s="68"/>
-      <c r="C19" s="70"/>
-      <c r="D19" s="68"/>
-      <c r="E19" s="68"/>
-      <c r="F19" s="68"/>
-      <c r="G19" s="65"/>
-      <c r="H19" s="65"/>
-      <c r="I19" s="65"/>
-      <c r="J19" s="66"/>
+      <c r="A19" s="61"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="J19" s="60"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="67"/>
-      <c r="B20" s="68"/>
-      <c r="C20" s="70"/>
-      <c r="D20" s="68"/>
-      <c r="E20" s="68"/>
-      <c r="F20" s="68"/>
-      <c r="G20" s="65"/>
-      <c r="H20" s="65"/>
-      <c r="I20" s="65"/>
-      <c r="J20" s="66"/>
+      <c r="A20" s="61"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="J20" s="60"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="67"/>
-      <c r="B21" s="68"/>
-      <c r="C21" s="70"/>
-      <c r="D21" s="68"/>
-      <c r="E21" s="68"/>
-      <c r="F21" s="68"/>
-      <c r="G21" s="65"/>
-      <c r="H21" s="65"/>
-      <c r="I21" s="65"/>
-      <c r="J21" s="66"/>
+      <c r="A21" s="61"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="J21" s="60"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="67"/>
-      <c r="B22" s="68"/>
-      <c r="C22" s="70"/>
-      <c r="D22" s="68"/>
-      <c r="E22" s="68"/>
-      <c r="F22" s="68"/>
-      <c r="G22" s="65"/>
-      <c r="H22" s="65"/>
-      <c r="I22" s="65"/>
-      <c r="J22" s="66"/>
+      <c r="A22" s="61"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
+      <c r="J22" s="60"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="67"/>
-      <c r="B23" s="68"/>
-      <c r="C23" s="70"/>
-      <c r="D23" s="68"/>
-      <c r="E23" s="68"/>
-      <c r="F23" s="68"/>
-      <c r="G23" s="65"/>
-      <c r="H23" s="65"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="66"/>
+      <c r="A23" s="61"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="J23" s="60"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="67"/>
-      <c r="B24" s="68"/>
-      <c r="C24" s="70"/>
-      <c r="D24" s="68"/>
-      <c r="E24" s="68"/>
-      <c r="F24" s="68"/>
-      <c r="G24" s="65"/>
-      <c r="H24" s="65"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="66"/>
+      <c r="A24" s="61"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+      <c r="J24" s="60"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="67"/>
-      <c r="B25" s="68"/>
-      <c r="C25" s="70"/>
-      <c r="D25" s="68"/>
-      <c r="E25" s="68"/>
-      <c r="F25" s="68"/>
-      <c r="G25" s="65"/>
-      <c r="H25" s="65"/>
-      <c r="I25" s="65"/>
-      <c r="J25" s="66"/>
+      <c r="A25" s="61"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="J25" s="60"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="67"/>
-      <c r="B26" s="68"/>
-      <c r="C26" s="70"/>
-      <c r="D26" s="68"/>
-      <c r="E26" s="68"/>
-      <c r="F26" s="68"/>
-      <c r="G26" s="65"/>
-      <c r="H26" s="65"/>
-      <c r="I26" s="65"/>
-      <c r="J26" s="66"/>
+      <c r="A26" s="61"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+      <c r="J26" s="60"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="67"/>
-      <c r="B27" s="68"/>
-      <c r="C27" s="70"/>
-      <c r="D27" s="68"/>
-      <c r="E27" s="68"/>
-      <c r="F27" s="68"/>
-      <c r="G27" s="65"/>
-      <c r="H27" s="65"/>
-      <c r="I27" s="65"/>
-      <c r="J27" s="66"/>
+      <c r="A27" s="61"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="J27" s="60"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="67"/>
-      <c r="B28" s="68"/>
-      <c r="C28" s="70"/>
-      <c r="D28" s="68"/>
-      <c r="E28" s="68"/>
-      <c r="F28" s="68"/>
-      <c r="G28" s="65"/>
-      <c r="H28" s="65"/>
-      <c r="I28" s="65"/>
-      <c r="J28" s="66"/>
+      <c r="A28" s="61"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="42"/>
+      <c r="J28" s="60"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="67"/>
-      <c r="B29" s="68"/>
-      <c r="C29" s="70"/>
-      <c r="D29" s="68"/>
-      <c r="E29" s="68"/>
-      <c r="F29" s="68"/>
-      <c r="G29" s="65"/>
-      <c r="H29" s="65"/>
-      <c r="I29" s="65"/>
-      <c r="J29" s="66"/>
+      <c r="A29" s="61"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42"/>
+      <c r="J29" s="60"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="67"/>
-      <c r="B30" s="68"/>
-      <c r="C30" s="70"/>
-      <c r="D30" s="68"/>
-      <c r="E30" s="68"/>
-      <c r="F30" s="68"/>
-      <c r="G30" s="65"/>
-      <c r="H30" s="65"/>
-      <c r="I30" s="65"/>
-      <c r="J30" s="66"/>
+      <c r="A30" s="61"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
+      <c r="J30" s="60"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="67"/>
-      <c r="B31" s="68"/>
-      <c r="C31" s="70"/>
-      <c r="D31" s="68"/>
-      <c r="E31" s="68"/>
-      <c r="F31" s="68"/>
-      <c r="G31" s="65"/>
-      <c r="H31" s="65"/>
-      <c r="I31" s="65"/>
-      <c r="J31" s="66"/>
+      <c r="A31" s="61"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="44"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42"/>
+      <c r="J31" s="60"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="67"/>
-      <c r="B32" s="68"/>
-      <c r="C32" s="70"/>
-      <c r="D32" s="68"/>
-      <c r="E32" s="68"/>
-      <c r="F32" s="68"/>
-      <c r="G32" s="65"/>
-      <c r="H32" s="65"/>
-      <c r="I32" s="65"/>
-      <c r="J32" s="66"/>
+      <c r="A32" s="61"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="44"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="42"/>
+      <c r="J32" s="60"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="67"/>
-      <c r="B33" s="68"/>
-      <c r="C33" s="70"/>
-      <c r="D33" s="68"/>
-      <c r="E33" s="68"/>
-      <c r="F33" s="68"/>
-      <c r="G33" s="65"/>
-      <c r="H33" s="65"/>
-      <c r="I33" s="65"/>
-      <c r="J33" s="66"/>
+      <c r="A33" s="61"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="44"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="42"/>
+      <c r="J33" s="60"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="67"/>
-      <c r="B34" s="68"/>
-      <c r="C34" s="70"/>
-      <c r="D34" s="68"/>
-      <c r="E34" s="68"/>
-      <c r="F34" s="68"/>
-      <c r="G34" s="65"/>
-      <c r="H34" s="65"/>
-      <c r="I34" s="65"/>
-      <c r="J34" s="66"/>
+      <c r="A34" s="61"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="42"/>
+      <c r="J34" s="60"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="67"/>
-      <c r="B35" s="68"/>
-      <c r="C35" s="70"/>
-      <c r="D35" s="68"/>
-      <c r="E35" s="68"/>
-      <c r="F35" s="68"/>
-      <c r="G35" s="65"/>
-      <c r="H35" s="65"/>
-      <c r="I35" s="65"/>
-      <c r="J35" s="66"/>
+      <c r="A35" s="61"/>
+      <c r="B35" s="42"/>
+      <c r="C35" s="44"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="42"/>
+      <c r="F35" s="42"/>
+      <c r="J35" s="60"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="67"/>
-      <c r="B36" s="68"/>
-      <c r="C36" s="70"/>
-      <c r="D36" s="68"/>
-      <c r="E36" s="68"/>
-      <c r="F36" s="68"/>
-      <c r="G36" s="65"/>
-      <c r="H36" s="65"/>
-      <c r="I36" s="65"/>
-      <c r="J36" s="66"/>
+      <c r="A36" s="61"/>
+      <c r="B36" s="42"/>
+      <c r="C36" s="44"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="42"/>
+      <c r="J36" s="60"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="67"/>
-      <c r="B37" s="68"/>
-      <c r="C37" s="70"/>
-      <c r="D37" s="68"/>
-      <c r="E37" s="68"/>
-      <c r="F37" s="68"/>
-      <c r="G37" s="65"/>
-      <c r="H37" s="65"/>
-      <c r="I37" s="65"/>
-      <c r="J37" s="66"/>
+      <c r="A37" s="61"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="44"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="42"/>
+      <c r="J37" s="60"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="67"/>
-      <c r="B38" s="68"/>
-      <c r="C38" s="70"/>
-      <c r="D38" s="68"/>
-      <c r="E38" s="68"/>
-      <c r="F38" s="68"/>
-      <c r="G38" s="65"/>
-      <c r="H38" s="65"/>
-      <c r="I38" s="65"/>
-      <c r="J38" s="66"/>
+      <c r="A38" s="61"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="44"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="42"/>
+      <c r="J38" s="60"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="67"/>
-      <c r="B39" s="68"/>
-      <c r="C39" s="70"/>
-      <c r="D39" s="68"/>
-      <c r="E39" s="68"/>
-      <c r="F39" s="68"/>
-      <c r="G39" s="65"/>
-      <c r="H39" s="65"/>
-      <c r="I39" s="65"/>
-      <c r="J39" s="66"/>
+      <c r="A39" s="61"/>
+      <c r="B39" s="42"/>
+      <c r="C39" s="44"/>
+      <c r="D39" s="42"/>
+      <c r="E39" s="42"/>
+      <c r="F39" s="42"/>
+      <c r="J39" s="60"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="67"/>
-      <c r="B40" s="68"/>
-      <c r="C40" s="68"/>
-      <c r="D40" s="68"/>
-      <c r="E40" s="68"/>
-      <c r="F40" s="68"/>
-      <c r="G40" s="65"/>
-      <c r="H40" s="65"/>
-      <c r="I40" s="65"/>
-      <c r="J40" s="66"/>
+      <c r="A40" s="61"/>
+      <c r="B40" s="42"/>
+      <c r="C40" s="42"/>
+      <c r="D40" s="42"/>
+      <c r="E40" s="42"/>
+      <c r="F40" s="42"/>
+      <c r="J40" s="60"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="67"/>
-      <c r="B41" s="68"/>
-      <c r="C41" s="68"/>
-      <c r="D41" s="68"/>
-      <c r="E41" s="68"/>
-      <c r="F41" s="68"/>
-      <c r="G41" s="65"/>
-      <c r="H41" s="65"/>
-      <c r="I41" s="65"/>
-      <c r="J41" s="66"/>
+      <c r="A41" s="61"/>
+      <c r="B41" s="42"/>
+      <c r="C41" s="42"/>
+      <c r="D41" s="42"/>
+      <c r="E41" s="42"/>
+      <c r="F41" s="42"/>
+      <c r="J41" s="60"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="67"/>
-      <c r="B42" s="68"/>
-      <c r="C42" s="68"/>
-      <c r="D42" s="68"/>
-      <c r="E42" s="68"/>
-      <c r="F42" s="68"/>
-      <c r="G42" s="65"/>
-      <c r="H42" s="65"/>
-      <c r="I42" s="65"/>
-      <c r="J42" s="66"/>
+      <c r="A42" s="61"/>
+      <c r="B42" s="42"/>
+      <c r="C42" s="42"/>
+      <c r="D42" s="42"/>
+      <c r="E42" s="42"/>
+      <c r="F42" s="42"/>
+      <c r="J42" s="60"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="67"/>
-      <c r="B43" s="68"/>
-      <c r="C43" s="68"/>
-      <c r="D43" s="68"/>
-      <c r="E43" s="68"/>
-      <c r="F43" s="68"/>
-      <c r="G43" s="65"/>
-      <c r="H43" s="65"/>
-      <c r="I43" s="65"/>
-      <c r="J43" s="66"/>
+      <c r="A43" s="61"/>
+      <c r="B43" s="42"/>
+      <c r="C43" s="42"/>
+      <c r="D43" s="42"/>
+      <c r="E43" s="42"/>
+      <c r="F43" s="42"/>
+      <c r="J43" s="60"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="67"/>
-      <c r="B44" s="68"/>
-      <c r="C44" s="68"/>
-      <c r="D44" s="68"/>
-      <c r="E44" s="68"/>
-      <c r="F44" s="68"/>
-      <c r="G44" s="65"/>
-      <c r="H44" s="65"/>
-      <c r="I44" s="65"/>
-      <c r="J44" s="66"/>
+      <c r="A44" s="61"/>
+      <c r="B44" s="42"/>
+      <c r="C44" s="42"/>
+      <c r="D44" s="42"/>
+      <c r="E44" s="42"/>
+      <c r="F44" s="42"/>
+      <c r="J44" s="60"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="64"/>
-      <c r="B45" s="65"/>
-      <c r="C45" s="65"/>
-      <c r="D45" s="65"/>
-      <c r="E45" s="65"/>
-      <c r="F45" s="65"/>
-      <c r="G45" s="65"/>
-      <c r="H45" s="65"/>
-      <c r="I45" s="65"/>
-      <c r="J45" s="66"/>
+      <c r="A45" s="59"/>
+      <c r="J45" s="60"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="64"/>
-      <c r="B46" s="65"/>
-      <c r="C46" s="65"/>
-      <c r="D46" s="65"/>
-      <c r="E46" s="65"/>
-      <c r="F46" s="65"/>
-      <c r="G46" s="65"/>
-      <c r="H46" s="65"/>
-      <c r="I46" s="65"/>
-      <c r="J46" s="66"/>
+      <c r="A46" s="59"/>
+      <c r="J46" s="60"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="64"/>
-      <c r="B47" s="65"/>
-      <c r="C47" s="65"/>
-      <c r="D47" s="65"/>
-      <c r="E47" s="65"/>
-      <c r="F47" s="65"/>
-      <c r="G47" s="65"/>
-      <c r="H47" s="65"/>
-      <c r="I47" s="65"/>
-      <c r="J47" s="66"/>
+      <c r="A47" s="59"/>
+      <c r="J47" s="60"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="64"/>
-      <c r="B48" s="65"/>
-      <c r="C48" s="65"/>
-      <c r="D48" s="65"/>
-      <c r="E48" s="65"/>
-      <c r="F48" s="65"/>
-      <c r="G48" s="65"/>
-      <c r="H48" s="65"/>
-      <c r="I48" s="65"/>
-      <c r="J48" s="66"/>
+      <c r="A48" s="59"/>
+      <c r="J48" s="60"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="64"/>
-      <c r="B49" s="65"/>
-      <c r="C49" s="65"/>
-      <c r="D49" s="65"/>
-      <c r="E49" s="65"/>
-      <c r="F49" s="65"/>
-      <c r="G49" s="65"/>
-      <c r="H49" s="65"/>
-      <c r="I49" s="65"/>
-      <c r="J49" s="66"/>
+      <c r="A49" s="59"/>
+      <c r="J49" s="60"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="64"/>
-      <c r="B50" s="65"/>
-      <c r="C50" s="65"/>
-      <c r="D50" s="65"/>
-      <c r="E50" s="65"/>
-      <c r="F50" s="65"/>
-      <c r="G50" s="65"/>
-      <c r="H50" s="65"/>
-      <c r="I50" s="65"/>
-      <c r="J50" s="66"/>
+      <c r="A50" s="59"/>
+      <c r="J50" s="60"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="64"/>
-      <c r="B51" s="65"/>
-      <c r="C51" s="65"/>
-      <c r="D51" s="65"/>
-      <c r="E51" s="65"/>
-      <c r="F51" s="65"/>
-      <c r="G51" s="65"/>
-      <c r="H51" s="65"/>
-      <c r="I51" s="65"/>
-      <c r="J51" s="66"/>
+      <c r="A51" s="59"/>
+      <c r="J51" s="60"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="64"/>
-      <c r="B52" s="65"/>
-      <c r="C52" s="65"/>
-      <c r="D52" s="65"/>
-      <c r="E52" s="65"/>
-      <c r="F52" s="65"/>
-      <c r="G52" s="65"/>
-      <c r="H52" s="65"/>
-      <c r="I52" s="65"/>
-      <c r="J52" s="66"/>
+      <c r="A52" s="59"/>
+      <c r="J52" s="60"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="64"/>
-      <c r="B53" s="65"/>
-      <c r="C53" s="65"/>
-      <c r="D53" s="65"/>
-      <c r="E53" s="65"/>
-      <c r="F53" s="65"/>
-      <c r="G53" s="65"/>
-      <c r="H53" s="65"/>
-      <c r="I53" s="65"/>
-      <c r="J53" s="66"/>
+      <c r="A53" s="59"/>
+      <c r="J53" s="60"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="71"/>
-      <c r="B54" s="72"/>
-      <c r="C54" s="72"/>
-      <c r="D54" s="72"/>
-      <c r="E54" s="72"/>
-      <c r="F54" s="72"/>
-      <c r="G54" s="72"/>
-      <c r="H54" s="72"/>
-      <c r="I54" s="72"/>
-      <c r="J54" s="73"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="83" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84C3269B-8B8B-477D-B943-31401F20768B}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:J54"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L47" sqref="L47"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="61"/>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="63"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="64"/>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="66"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="64"/>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="66"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="64"/>
-      <c r="B4" s="65"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="66"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="64"/>
-      <c r="B5" s="65"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="66"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="64"/>
-      <c r="B6" s="65"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="65"/>
-      <c r="I6" s="65"/>
-      <c r="J6" s="66"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="64"/>
-      <c r="B7" s="65"/>
-      <c r="C7" s="65"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="65"/>
-      <c r="I7" s="65"/>
-      <c r="J7" s="66"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="67"/>
-      <c r="B8" s="68"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="68"/>
-      <c r="G8" s="65"/>
-      <c r="H8" s="65"/>
-      <c r="I8" s="65"/>
-      <c r="J8" s="66"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="67"/>
-      <c r="B9" s="68"/>
-      <c r="C9" s="68"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="68"/>
-      <c r="G9" s="65"/>
-      <c r="H9" s="65"/>
-      <c r="I9" s="65"/>
-      <c r="J9" s="66"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="67"/>
-      <c r="B10" s="68"/>
-      <c r="C10" s="68"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="68"/>
-      <c r="F10" s="68"/>
-      <c r="G10" s="65"/>
-      <c r="H10" s="65"/>
-      <c r="I10" s="65"/>
-      <c r="J10" s="66"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="67"/>
-      <c r="B11" s="68"/>
-      <c r="C11" s="69"/>
-      <c r="D11" s="68"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="68"/>
-      <c r="G11" s="65"/>
-      <c r="H11" s="65"/>
-      <c r="I11" s="65"/>
-      <c r="J11" s="66"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="67"/>
-      <c r="B12" s="68"/>
-      <c r="C12" s="69"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="68"/>
-      <c r="F12" s="68"/>
-      <c r="G12" s="65"/>
-      <c r="H12" s="65"/>
-      <c r="I12" s="65"/>
-      <c r="J12" s="66"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="67"/>
-      <c r="B13" s="68"/>
-      <c r="C13" s="69"/>
-      <c r="D13" s="68"/>
-      <c r="E13" s="68"/>
-      <c r="F13" s="68"/>
-      <c r="G13" s="65"/>
-      <c r="H13" s="65"/>
-      <c r="I13" s="65"/>
-      <c r="J13" s="66"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="67"/>
-      <c r="B14" s="68"/>
-      <c r="C14" s="70"/>
-      <c r="D14" s="68"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="68"/>
-      <c r="G14" s="65"/>
-      <c r="H14" s="65"/>
-      <c r="I14" s="65"/>
-      <c r="J14" s="66"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="67"/>
-      <c r="B15" s="68"/>
-      <c r="C15" s="69"/>
-      <c r="D15" s="68"/>
-      <c r="E15" s="68"/>
-      <c r="F15" s="68"/>
-      <c r="G15" s="65"/>
-      <c r="H15" s="65"/>
-      <c r="I15" s="65"/>
-      <c r="J15" s="66"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="67"/>
-      <c r="B16" s="68"/>
-      <c r="C16" s="69"/>
-      <c r="D16" s="68"/>
-      <c r="E16" s="68"/>
-      <c r="F16" s="68"/>
-      <c r="G16" s="65"/>
-      <c r="H16" s="65"/>
-      <c r="I16" s="65"/>
-      <c r="J16" s="66"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="67"/>
-      <c r="B17" s="68"/>
-      <c r="C17" s="69"/>
-      <c r="D17" s="68"/>
-      <c r="E17" s="68"/>
-      <c r="F17" s="68"/>
-      <c r="G17" s="65"/>
-      <c r="H17" s="65"/>
-      <c r="I17" s="65"/>
-      <c r="J17" s="66"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="67"/>
-      <c r="B18" s="68"/>
-      <c r="C18" s="70"/>
-      <c r="D18" s="68"/>
-      <c r="E18" s="68"/>
-      <c r="F18" s="68"/>
-      <c r="G18" s="65"/>
-      <c r="H18" s="65"/>
-      <c r="I18" s="65"/>
-      <c r="J18" s="66"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="67"/>
-      <c r="B19" s="68"/>
-      <c r="C19" s="70"/>
-      <c r="D19" s="68"/>
-      <c r="E19" s="68"/>
-      <c r="F19" s="68"/>
-      <c r="G19" s="65"/>
-      <c r="H19" s="65"/>
-      <c r="I19" s="65"/>
-      <c r="J19" s="66"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="67"/>
-      <c r="B20" s="68"/>
-      <c r="C20" s="70"/>
-      <c r="D20" s="68"/>
-      <c r="E20" s="68"/>
-      <c r="F20" s="68"/>
-      <c r="G20" s="65"/>
-      <c r="H20" s="65"/>
-      <c r="I20" s="65"/>
-      <c r="J20" s="66"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="67"/>
-      <c r="B21" s="68"/>
-      <c r="C21" s="70"/>
-      <c r="D21" s="68"/>
-      <c r="E21" s="68"/>
-      <c r="F21" s="68"/>
-      <c r="G21" s="65"/>
-      <c r="H21" s="65"/>
-      <c r="I21" s="65"/>
-      <c r="J21" s="66"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="67"/>
-      <c r="B22" s="68"/>
-      <c r="C22" s="70"/>
-      <c r="D22" s="68"/>
-      <c r="E22" s="68"/>
-      <c r="F22" s="68"/>
-      <c r="G22" s="65"/>
-      <c r="H22" s="65"/>
-      <c r="I22" s="65"/>
-      <c r="J22" s="66"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="67"/>
-      <c r="B23" s="68"/>
-      <c r="C23" s="70"/>
-      <c r="D23" s="68"/>
-      <c r="E23" s="68"/>
-      <c r="F23" s="68"/>
-      <c r="G23" s="65"/>
-      <c r="H23" s="65"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="66"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="67"/>
-      <c r="B24" s="68"/>
-      <c r="C24" s="70"/>
-      <c r="D24" s="68"/>
-      <c r="E24" s="68"/>
-      <c r="F24" s="68"/>
-      <c r="G24" s="65"/>
-      <c r="H24" s="65"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="66"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="67"/>
-      <c r="B25" s="68"/>
-      <c r="C25" s="70"/>
-      <c r="D25" s="68"/>
-      <c r="E25" s="68"/>
-      <c r="F25" s="68"/>
-      <c r="G25" s="65"/>
-      <c r="H25" s="65"/>
-      <c r="I25" s="65"/>
-      <c r="J25" s="66"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="67"/>
-      <c r="B26" s="68"/>
-      <c r="C26" s="70"/>
-      <c r="D26" s="68"/>
-      <c r="E26" s="68"/>
-      <c r="F26" s="68"/>
-      <c r="G26" s="65"/>
-      <c r="H26" s="65"/>
-      <c r="I26" s="65"/>
-      <c r="J26" s="66"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="67"/>
-      <c r="B27" s="68"/>
-      <c r="C27" s="70"/>
-      <c r="D27" s="68"/>
-      <c r="E27" s="68"/>
-      <c r="F27" s="68"/>
-      <c r="G27" s="65"/>
-      <c r="H27" s="65"/>
-      <c r="I27" s="65"/>
-      <c r="J27" s="66"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="67"/>
-      <c r="B28" s="68"/>
-      <c r="C28" s="70"/>
-      <c r="D28" s="68"/>
-      <c r="E28" s="68"/>
-      <c r="F28" s="68"/>
-      <c r="G28" s="65"/>
-      <c r="H28" s="65"/>
-      <c r="I28" s="65"/>
-      <c r="J28" s="66"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="67"/>
-      <c r="B29" s="68"/>
-      <c r="C29" s="70"/>
-      <c r="D29" s="68"/>
-      <c r="E29" s="68"/>
-      <c r="F29" s="68"/>
-      <c r="G29" s="65"/>
-      <c r="H29" s="65"/>
-      <c r="I29" s="65"/>
-      <c r="J29" s="66"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="67"/>
-      <c r="B30" s="68"/>
-      <c r="C30" s="70"/>
-      <c r="D30" s="68"/>
-      <c r="E30" s="68"/>
-      <c r="F30" s="68"/>
-      <c r="G30" s="65"/>
-      <c r="H30" s="65"/>
-      <c r="I30" s="65"/>
-      <c r="J30" s="66"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="67"/>
-      <c r="B31" s="68"/>
-      <c r="C31" s="70"/>
-      <c r="D31" s="68"/>
-      <c r="E31" s="68"/>
-      <c r="F31" s="68"/>
-      <c r="G31" s="65"/>
-      <c r="H31" s="65"/>
-      <c r="I31" s="65"/>
-      <c r="J31" s="66"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="67"/>
-      <c r="B32" s="68"/>
-      <c r="C32" s="70"/>
-      <c r="D32" s="68"/>
-      <c r="E32" s="68"/>
-      <c r="F32" s="68"/>
-      <c r="G32" s="65"/>
-      <c r="H32" s="65"/>
-      <c r="I32" s="65"/>
-      <c r="J32" s="66"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="67"/>
-      <c r="B33" s="68"/>
-      <c r="C33" s="70"/>
-      <c r="D33" s="68"/>
-      <c r="E33" s="68"/>
-      <c r="F33" s="68"/>
-      <c r="G33" s="65"/>
-      <c r="H33" s="65"/>
-      <c r="I33" s="65"/>
-      <c r="J33" s="66"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="67"/>
-      <c r="B34" s="68"/>
-      <c r="C34" s="70"/>
-      <c r="D34" s="68"/>
-      <c r="E34" s="68"/>
-      <c r="F34" s="68"/>
-      <c r="G34" s="65"/>
-      <c r="H34" s="65"/>
-      <c r="I34" s="65"/>
-      <c r="J34" s="66"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="67"/>
-      <c r="B35" s="68"/>
-      <c r="C35" s="70"/>
-      <c r="D35" s="68"/>
-      <c r="E35" s="68"/>
-      <c r="F35" s="68"/>
-      <c r="G35" s="65"/>
-      <c r="H35" s="65"/>
-      <c r="I35" s="65"/>
-      <c r="J35" s="66"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="67"/>
-      <c r="B36" s="68"/>
-      <c r="C36" s="70"/>
-      <c r="D36" s="68"/>
-      <c r="E36" s="68"/>
-      <c r="F36" s="68"/>
-      <c r="G36" s="65"/>
-      <c r="H36" s="65"/>
-      <c r="I36" s="65"/>
-      <c r="J36" s="66"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="67"/>
-      <c r="B37" s="68"/>
-      <c r="C37" s="70"/>
-      <c r="D37" s="68"/>
-      <c r="E37" s="68"/>
-      <c r="F37" s="68"/>
-      <c r="G37" s="65"/>
-      <c r="H37" s="65"/>
-      <c r="I37" s="65"/>
-      <c r="J37" s="66"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="67"/>
-      <c r="B38" s="68"/>
-      <c r="C38" s="70"/>
-      <c r="D38" s="68"/>
-      <c r="E38" s="68"/>
-      <c r="F38" s="68"/>
-      <c r="G38" s="65"/>
-      <c r="H38" s="65"/>
-      <c r="I38" s="65"/>
-      <c r="J38" s="66"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="67"/>
-      <c r="B39" s="68"/>
-      <c r="C39" s="70"/>
-      <c r="D39" s="68"/>
-      <c r="E39" s="68"/>
-      <c r="F39" s="68"/>
-      <c r="G39" s="65"/>
-      <c r="H39" s="65"/>
-      <c r="I39" s="65"/>
-      <c r="J39" s="66"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="67"/>
-      <c r="B40" s="68"/>
-      <c r="C40" s="68"/>
-      <c r="D40" s="68"/>
-      <c r="E40" s="68"/>
-      <c r="F40" s="68"/>
-      <c r="G40" s="65"/>
-      <c r="H40" s="65"/>
-      <c r="I40" s="65"/>
-      <c r="J40" s="66"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="67"/>
-      <c r="B41" s="68"/>
-      <c r="C41" s="68"/>
-      <c r="D41" s="68"/>
-      <c r="E41" s="68"/>
-      <c r="F41" s="68"/>
-      <c r="G41" s="65"/>
-      <c r="H41" s="65"/>
-      <c r="I41" s="65"/>
-      <c r="J41" s="66"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="67"/>
-      <c r="B42" s="68"/>
-      <c r="C42" s="68"/>
-      <c r="D42" s="68"/>
-      <c r="E42" s="68"/>
-      <c r="F42" s="68"/>
-      <c r="G42" s="65"/>
-      <c r="H42" s="65"/>
-      <c r="I42" s="65"/>
-      <c r="J42" s="66"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="67"/>
-      <c r="B43" s="68"/>
-      <c r="C43" s="68"/>
-      <c r="D43" s="68"/>
-      <c r="E43" s="68"/>
-      <c r="F43" s="68"/>
-      <c r="G43" s="65"/>
-      <c r="H43" s="65"/>
-      <c r="I43" s="65"/>
-      <c r="J43" s="66"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="67"/>
-      <c r="B44" s="68"/>
-      <c r="C44" s="68"/>
-      <c r="D44" s="68"/>
-      <c r="E44" s="68"/>
-      <c r="F44" s="68"/>
-      <c r="G44" s="65"/>
-      <c r="H44" s="65"/>
-      <c r="I44" s="65"/>
-      <c r="J44" s="66"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="64"/>
-      <c r="B45" s="65"/>
-      <c r="C45" s="65"/>
-      <c r="D45" s="65"/>
-      <c r="E45" s="65"/>
-      <c r="F45" s="65"/>
-      <c r="G45" s="65"/>
-      <c r="H45" s="65"/>
-      <c r="I45" s="65"/>
-      <c r="J45" s="66"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="64"/>
-      <c r="B46" s="65"/>
-      <c r="C46" s="65"/>
-      <c r="D46" s="65"/>
-      <c r="E46" s="65"/>
-      <c r="F46" s="65"/>
-      <c r="G46" s="65"/>
-      <c r="H46" s="65"/>
-      <c r="I46" s="65"/>
-      <c r="J46" s="66"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="64"/>
-      <c r="B47" s="65"/>
-      <c r="C47" s="65"/>
-      <c r="D47" s="65"/>
-      <c r="E47" s="65"/>
-      <c r="F47" s="65"/>
-      <c r="G47" s="65"/>
-      <c r="H47" s="65"/>
-      <c r="I47" s="65"/>
-      <c r="J47" s="66"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="64"/>
-      <c r="B48" s="65"/>
-      <c r="C48" s="65"/>
-      <c r="D48" s="65"/>
-      <c r="E48" s="65"/>
-      <c r="F48" s="65"/>
-      <c r="G48" s="65"/>
-      <c r="H48" s="65"/>
-      <c r="I48" s="65"/>
-      <c r="J48" s="66"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="64"/>
-      <c r="B49" s="65"/>
-      <c r="C49" s="65"/>
-      <c r="D49" s="65"/>
-      <c r="E49" s="65"/>
-      <c r="F49" s="65"/>
-      <c r="G49" s="65"/>
-      <c r="H49" s="65"/>
-      <c r="I49" s="65"/>
-      <c r="J49" s="66"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="64"/>
-      <c r="B50" s="65"/>
-      <c r="C50" s="65"/>
-      <c r="D50" s="65"/>
-      <c r="E50" s="65"/>
-      <c r="F50" s="65"/>
-      <c r="G50" s="65"/>
-      <c r="H50" s="65"/>
-      <c r="I50" s="65"/>
-      <c r="J50" s="66"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="64"/>
-      <c r="B51" s="65"/>
-      <c r="C51" s="65"/>
-      <c r="D51" s="65"/>
-      <c r="E51" s="65"/>
-      <c r="F51" s="65"/>
-      <c r="G51" s="65"/>
-      <c r="H51" s="65"/>
-      <c r="I51" s="65"/>
-      <c r="J51" s="66"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="64"/>
-      <c r="B52" s="65"/>
-      <c r="C52" s="65"/>
-      <c r="D52" s="65"/>
-      <c r="E52" s="65"/>
-      <c r="F52" s="65"/>
-      <c r="G52" s="65"/>
-      <c r="H52" s="65"/>
-      <c r="I52" s="65"/>
-      <c r="J52" s="66"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="64"/>
-      <c r="B53" s="65"/>
-      <c r="C53" s="65"/>
-      <c r="D53" s="65"/>
-      <c r="E53" s="65"/>
-      <c r="F53" s="65"/>
-      <c r="G53" s="65"/>
-      <c r="H53" s="65"/>
-      <c r="I53" s="65"/>
-      <c r="J53" s="66"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="71"/>
-      <c r="B54" s="72"/>
-      <c r="C54" s="72"/>
-      <c r="D54" s="72"/>
-      <c r="E54" s="72"/>
-      <c r="F54" s="72"/>
-      <c r="G54" s="72"/>
-      <c r="H54" s="72"/>
-      <c r="I54" s="72"/>
-      <c r="J54" s="73"/>
+      <c r="A54" s="62"/>
+      <c r="B54" s="63"/>
+      <c r="C54" s="63"/>
+      <c r="D54" s="63"/>
+      <c r="E54" s="63"/>
+      <c r="F54" s="63"/>
+      <c r="G54" s="63"/>
+      <c r="H54" s="63"/>
+      <c r="I54" s="63"/>
+      <c r="J54" s="64"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -49535,11 +48622,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="str">
+      <c r="A1" s="68" t="str">
         <f>"TABLE " &amp; C1</f>
         <v>TABLE A3</v>
       </c>
-      <c r="B1" s="59"/>
+      <c r="B1" s="68"/>
       <c r="C1" s="40" t="s">
         <v>39</v>
       </c>
@@ -49550,28 +48637,28 @@
         <f>VLOOKUP(C1,Summary!A10:'Summary'!D39, 3, FALSE)</f>
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="I1" s="60" t="str">
+      <c r="I1" s="69" t="str">
         <f>"p. " &amp; VLOOKUP(C1,Summary!A10:'Summary'!D39, 4, FALSE)</f>
         <v>p. 818</v>
       </c>
-      <c r="J1" s="60"/>
+      <c r="J1" s="69"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="57"/>
-      <c r="D3" s="56" t="s">
+      <c r="C3" s="66"/>
+      <c r="D3" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="56" t="s">
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="57"/>
+      <c r="I3" s="66"/>
       <c r="J3" s="6"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -51693,11 +50780,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="str">
+      <c r="A1" s="68" t="str">
         <f>"TABLE " &amp; C1</f>
         <v>TABLE A4</v>
       </c>
-      <c r="B1" s="59"/>
+      <c r="B1" s="68"/>
       <c r="C1" s="40" t="s">
         <v>40</v>
       </c>
@@ -51708,28 +50795,28 @@
         <f>VLOOKUP(C1,Summary!A10:'Summary'!D39, 3, FALSE)</f>
         <v>0.01</v>
       </c>
-      <c r="I1" s="60" t="str">
+      <c r="I1" s="69" t="str">
         <f>"p. " &amp; VLOOKUP(C1,Summary!A10:'Summary'!D39, 4, FALSE)</f>
         <v>p. 819</v>
       </c>
-      <c r="J1" s="60"/>
+      <c r="J1" s="69"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="57"/>
-      <c r="D3" s="56" t="s">
+      <c r="C3" s="66"/>
+      <c r="D3" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="56" t="s">
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="57"/>
+      <c r="I3" s="66"/>
       <c r="J3" s="6"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -53851,11 +52938,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="str">
+      <c r="A1" s="68" t="str">
         <f>"TABLE " &amp; C1</f>
         <v>TABLE A5</v>
       </c>
-      <c r="B1" s="59"/>
+      <c r="B1" s="68"/>
       <c r="C1" s="40" t="s">
         <v>41</v>
       </c>
@@ -53866,28 +52953,28 @@
         <f>VLOOKUP(C1,Summary!A10:'Summary'!D39, 3, FALSE)</f>
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="I1" s="60" t="str">
+      <c r="I1" s="69" t="str">
         <f>"p. " &amp; VLOOKUP(C1,Summary!A10:'Summary'!D39, 4, FALSE)</f>
         <v>p. 820</v>
       </c>
-      <c r="J1" s="60"/>
+      <c r="J1" s="69"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="57"/>
-      <c r="D3" s="56" t="s">
+      <c r="C3" s="66"/>
+      <c r="D3" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="56" t="s">
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="57"/>
+      <c r="I3" s="66"/>
       <c r="J3" s="6"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -56009,11 +55096,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="str">
+      <c r="A1" s="68" t="str">
         <f>"TABLE " &amp; C1</f>
         <v>TABLE A6</v>
       </c>
-      <c r="B1" s="59"/>
+      <c r="B1" s="68"/>
       <c r="C1" s="40" t="s">
         <v>42</v>
       </c>
@@ -56024,28 +55111,28 @@
         <f>VLOOKUP(C1,Summary!A10:'Summary'!D39, 3, FALSE)</f>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="I1" s="60" t="str">
+      <c r="I1" s="69" t="str">
         <f>"p. " &amp; VLOOKUP(C1,Summary!A10:'Summary'!D39, 4, FALSE)</f>
         <v>p. 821</v>
       </c>
-      <c r="J1" s="60"/>
+      <c r="J1" s="69"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="57"/>
-      <c r="D3" s="56" t="s">
+      <c r="C3" s="66"/>
+      <c r="D3" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="56" t="s">
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="57"/>
+      <c r="I3" s="66"/>
       <c r="J3" s="6"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -58167,11 +57254,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="str">
+      <c r="A1" s="68" t="str">
         <f>"TABLE " &amp; C1</f>
         <v>TABLE A7</v>
       </c>
-      <c r="B1" s="59"/>
+      <c r="B1" s="68"/>
       <c r="C1" s="40" t="s">
         <v>35</v>
       </c>
@@ -58182,28 +57269,28 @@
         <f>VLOOKUP(C1,Summary!A10:'Summary'!D39, 3, FALSE)</f>
         <v>1.7500000000000002E-2</v>
       </c>
-      <c r="I1" s="60" t="str">
+      <c r="I1" s="69" t="str">
         <f>"p. " &amp; VLOOKUP(C1,Summary!A10:'Summary'!D39, 4, FALSE)</f>
         <v>p. 822</v>
       </c>
-      <c r="J1" s="60"/>
+      <c r="J1" s="69"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="57"/>
-      <c r="D3" s="56" t="s">
+      <c r="C3" s="66"/>
+      <c r="D3" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="56" t="s">
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="57"/>
+      <c r="I3" s="66"/>
       <c r="J3" s="6"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -60325,11 +59412,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="str">
+      <c r="A1" s="68" t="str">
         <f>"TABLE " &amp; C1</f>
         <v>TABLE A8</v>
       </c>
-      <c r="B1" s="59"/>
+      <c r="B1" s="68"/>
       <c r="C1" s="40" t="s">
         <v>43</v>
       </c>
@@ -60340,28 +59427,28 @@
         <f>VLOOKUP(C1,Summary!A10:'Summary'!D39, 3, FALSE)</f>
         <v>0.02</v>
       </c>
-      <c r="I1" s="60" t="str">
+      <c r="I1" s="69" t="str">
         <f>"p. " &amp; VLOOKUP(C1,Summary!A10:'Summary'!D39, 4, FALSE)</f>
         <v>p. 823</v>
       </c>
-      <c r="J1" s="60"/>
+      <c r="J1" s="69"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="57"/>
-      <c r="D3" s="56" t="s">
+      <c r="C3" s="66"/>
+      <c r="D3" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="56" t="s">
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="57"/>
+      <c r="I3" s="66"/>
       <c r="J3" s="6"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">

--- a/Annexe.xlsx
+++ b/Annexe.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\UdeS_S7_GEN700\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92E52B92-0E66-4B93-9072-FEF96EF32FF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{083CA924-5BF1-4485-8A46-6B3DFF08BC0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{BC273EC7-125C-4121-8820-100AB02E3B4D}"/>
+    <workbookView xWindow="-50520" yWindow="5655" windowWidth="25440" windowHeight="15270" firstSheet="5" activeTab="18" xr2:uid="{BC273EC7-125C-4121-8820-100AB02E3B4D}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="3" r:id="rId1"/>
@@ -2129,7 +2129,7 @@
   </sheetPr>
   <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
@@ -21765,8 +21765,8 @@
   </sheetPr>
   <dimension ref="A1:J52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30070,7 +30070,7 @@
   <dimension ref="A1:J50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
